--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE2B5-8E09-40FC-B031-AB4978167F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$461</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$462</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="287">
   <si>
     <t>Payslip</t>
   </si>
@@ -943,11 +944,31 @@
       <t>PPSN or an employee ID must be provided for a lookup RPN by employee request</t>
     </r>
   </si>
+  <si>
+    <t>payPeriod</t>
+  </si>
+  <si>
+    <t>Invalid PayPeriod selected for chosen PayFrequency.</t>
+  </si>
+  <si>
+    <t>Pay Period must be between {number of period} when pay frequency is {payfrequency}
+Options include:
+•	1-53 where pay frequency is weekly;
+•	1-27 where pay frequency is fortnightly;
+•	1-24 where pay frequency is twice monthly;
+•	1-12 where pay frequency is monthly;
+•	1-14 where pay frequency is week-based monthly; 
+•	1-14 where pay frequency is four-weekly;
+•	1-4 where pay frequency is quarterly; 
+•	1-2 where pay frequency is bi-annual;
+•	1 where pay frequency is annual;
+•	1-52 where pay frequency is other.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1196,12 +1217,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1533,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1505,7 +1572,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -22170,11 +22237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B8:M66"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22823,6 +22890,15 @@
         <v>164</v>
       </c>
     </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="79"/>
+      <c r="C66" s="79">
+        <v>157</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22834,15 +22910,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN461"/>
+  <dimension ref="A1:BN462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26410,51 +26486,51 @@
       <c r="BM57" s="22"/>
       <c r="BN57" s="22"/>
     </row>
-    <row r="58" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>155</v>
-      </c>
-      <c r="B58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="4">
-        <v>16</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="C58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="54">
         <v>200</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="10">
-        <v>2052</v>
-      </c>
-      <c r="M58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="N58" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="53">
+        <v>2047</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="N58" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O58" s="30" t="s">
-        <v>280</v>
+      <c r="O58" s="63" t="s">
+        <v>0</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -26508,51 +26584,51 @@
       <c r="BM58" s="22"/>
       <c r="BN58" s="22"/>
     </row>
-    <row r="59" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>122</v>
-      </c>
-      <c r="B59" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="54" t="s">
+      <c r="C59" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="4">
+        <v>16</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="54">
+      <c r="G59" s="24">
         <v>200</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="53">
-        <v>2047</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="N59" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="10">
+        <v>2052</v>
+      </c>
+      <c r="M59" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="N59" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O59" s="63" t="s">
-        <v>0</v>
+      <c r="O59" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -26606,94 +26682,122 @@
       <c r="BM59" s="22"/>
       <c r="BN59" s="22"/>
     </row>
-    <row r="60" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
+    <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>156</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="4">
+        <v>55</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="24">
+        <v>200</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="10">
+        <v>2053</v>
+      </c>
+      <c r="M60" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="22"/>
+      <c r="AQ60" s="22"/>
+      <c r="AR60" s="22"/>
+      <c r="AS60" s="22"/>
+      <c r="AT60" s="22"/>
+      <c r="AU60" s="22"/>
+      <c r="AV60" s="22"/>
+      <c r="AW60" s="22"/>
+      <c r="AX60" s="22"/>
+      <c r="AY60" s="22"/>
+      <c r="AZ60" s="22"/>
+      <c r="BA60" s="22"/>
+      <c r="BB60" s="22"/>
+      <c r="BC60" s="22"/>
+      <c r="BD60" s="22"/>
+      <c r="BE60" s="22"/>
+      <c r="BF60" s="22"/>
+      <c r="BG60" s="22"/>
+      <c r="BH60" s="22"/>
+      <c r="BI60" s="22"/>
+      <c r="BJ60" s="22"/>
+      <c r="BK60" s="22"/>
+      <c r="BL60" s="22"/>
+      <c r="BM60" s="22"/>
+      <c r="BN60" s="22"/>
+    </row>
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="21"/>
-      <c r="AQ60" s="21"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="21"/>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="21"/>
-      <c r="BC60" s="21"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="21"/>
-      <c r="BG60" s="21"/>
-      <c r="BH60" s="21"/>
-      <c r="BI60" s="21"/>
-      <c r="BJ60" s="21"/>
-      <c r="BK60" s="21"/>
-      <c r="BL60" s="21"/>
-      <c r="BM60" s="21"/>
-      <c r="BN60" s="21"/>
-    </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
-      <c r="O61" s="100"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -26746,52 +26850,24 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92">
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="92">
-        <v>403</v>
-      </c>
-      <c r="H62" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J62" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L62" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M62" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O62" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -26844,15 +26920,15 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D63" s="92" t="s">
         <v>12</v>
@@ -26879,16 +26955,16 @@
         <v>34</v>
       </c>
       <c r="L63" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M63" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N63" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O63" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
@@ -26942,50 +27018,50 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>52</v>
+    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="92">
+        <v>146</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="24">
-        <v>401</v>
-      </c>
-      <c r="H64" s="58" t="s">
+      <c r="G64" s="92">
+        <v>403</v>
+      </c>
+      <c r="H64" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I64" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M64" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N64" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O64" s="49" t="s">
+      <c r="L64" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M64" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P64" s="21"/>
@@ -27040,15 +27116,15 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>149</v>
+      <c r="C65" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -27075,15 +27151,15 @@
         <v>34</v>
       </c>
       <c r="L65" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N65" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O65" s="47" t="s">
+      <c r="O65" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P65" s="21"/>
@@ -27138,15 +27214,15 @@
       <c r="BM65" s="21"/>
       <c r="BN65" s="21"/>
     </row>
-    <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27158,7 +27234,7 @@
         <v>142</v>
       </c>
       <c r="G66" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H66" s="58" t="s">
         <v>218</v>
@@ -27166,85 +27242,85 @@
       <c r="I66" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M66" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="N66" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="22"/>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="22"/>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="22"/>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="22"/>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="22"/>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="22"/>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="22"/>
-    </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="21"/>
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="21"/>
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="21"/>
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="21"/>
+    </row>
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -27268,13 +27344,13 @@
         <v>7</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L67" s="24">
+        <v>1003</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N67" s="30" t="s">
         <v>62</v>
@@ -27334,26 +27410,26 @@
       <c r="BM67" s="22"/>
       <c r="BN67" s="22"/>
     </row>
-    <row r="68" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="53" t="s">
+      <c r="C68" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="54">
+      <c r="G68" s="24">
         <v>400</v>
       </c>
       <c r="H68" s="58" t="s">
@@ -27362,46 +27438,97 @@
       <c r="I68" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="54" t="s">
+      <c r="K68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N68" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O68" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L68" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
+      <c r="AQ68" s="22"/>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="22"/>
+      <c r="AV68" s="22"/>
+      <c r="AW68" s="22"/>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="22"/>
+      <c r="BG68" s="22"/>
+      <c r="BH68" s="22"/>
+      <c r="BI68" s="22"/>
+      <c r="BJ68" s="22"/>
+      <c r="BK68" s="22"/>
+      <c r="BL68" s="22"/>
+      <c r="BM68" s="22"/>
+      <c r="BN68" s="22"/>
+    </row>
+    <row r="69" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="24">
-        <v>403</v>
+      <c r="G69" s="54">
+        <v>400</v>
       </c>
       <c r="H69" s="58" t="s">
         <v>218</v>
@@ -27409,85 +27536,34 @@
       <c r="I69" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="24" t="s">
+      <c r="K69" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M69" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O69" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
-      <c r="AQ69" s="22"/>
-      <c r="AR69" s="22"/>
-      <c r="AS69" s="22"/>
-      <c r="AT69" s="22"/>
-      <c r="AU69" s="22"/>
-      <c r="AV69" s="22"/>
-      <c r="AW69" s="22"/>
-      <c r="AX69" s="22"/>
-      <c r="AY69" s="22"/>
-      <c r="AZ69" s="22"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="22"/>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="22"/>
-      <c r="BG69" s="22"/>
-      <c r="BH69" s="22"/>
-      <c r="BI69" s="22"/>
-      <c r="BJ69" s="22"/>
-      <c r="BK69" s="22"/>
-      <c r="BL69" s="22"/>
-      <c r="BM69" s="22"/>
-      <c r="BN69" s="22"/>
+      <c r="L69" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M69" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
@@ -27511,13 +27587,13 @@
         <v>7</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L70" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N70" s="30" t="s">
         <v>62</v>
@@ -27579,13 +27655,13 @@
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
@@ -27612,10 +27688,10 @@
         <v>32</v>
       </c>
       <c r="L71" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
@@ -27677,15 +27753,15 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -27707,19 +27783,19 @@
         <v>7</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L72" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L72" s="25">
+        <v>1008</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="N72" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -27775,15 +27851,15 @@
     </row>
     <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -27793,7 +27869,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H73" s="58" t="s">
         <v>218</v>
@@ -27801,23 +27877,23 @@
       <c r="I73" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M73" s="30" t="s">
-        <v>42</v>
+      <c r="L73" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M73" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N73" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
@@ -27871,94 +27947,122 @@
       <c r="BM73" s="22"/>
       <c r="BN73" s="22"/>
     </row>
-    <row r="74" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="99" t="s">
+    <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>61</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="24">
+        <v>404</v>
+      </c>
+      <c r="H74" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="22"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="22"/>
+      <c r="AH74" s="22"/>
+      <c r="AI74" s="22"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="22"/>
+      <c r="AL74" s="22"/>
+      <c r="AM74" s="22"/>
+      <c r="AN74" s="22"/>
+      <c r="AO74" s="22"/>
+      <c r="AP74" s="22"/>
+      <c r="AQ74" s="22"/>
+      <c r="AR74" s="22"/>
+      <c r="AS74" s="22"/>
+      <c r="AT74" s="22"/>
+      <c r="AU74" s="22"/>
+      <c r="AV74" s="22"/>
+      <c r="AW74" s="22"/>
+      <c r="AX74" s="22"/>
+      <c r="AY74" s="22"/>
+      <c r="AZ74" s="22"/>
+      <c r="BA74" s="22"/>
+      <c r="BB74" s="22"/>
+      <c r="BC74" s="22"/>
+      <c r="BD74" s="22"/>
+      <c r="BE74" s="22"/>
+      <c r="BF74" s="22"/>
+      <c r="BG74" s="22"/>
+      <c r="BH74" s="22"/>
+      <c r="BI74" s="22"/>
+      <c r="BJ74" s="22"/>
+      <c r="BK74" s="22"/>
+      <c r="BL74" s="22"/>
+      <c r="BM74" s="22"/>
+      <c r="BN74" s="22"/>
+    </row>
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="99"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
-      <c r="BJ74" s="21"/>
-      <c r="BK74" s="21"/>
-      <c r="BL74" s="21"/>
-      <c r="BM74" s="21"/>
-      <c r="BN74" s="21"/>
-    </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
-      <c r="O75" s="100"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -28011,52 +28115,24 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="92">
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" s="92">
-        <v>403</v>
-      </c>
-      <c r="H76" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J76" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K76" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L76" s="92">
-        <v>1111</v>
-      </c>
-      <c r="M76" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O76" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
@@ -28109,15 +28185,15 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="92">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>12</v>
@@ -28144,16 +28220,16 @@
         <v>34</v>
       </c>
       <c r="L77" s="92">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M77" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N77" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="93" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
@@ -28207,50 +28283,50 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>62</v>
+    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="92">
+        <v>146</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="24">
-        <v>401</v>
-      </c>
-      <c r="H78" s="58" t="s">
+      <c r="G78" s="92">
+        <v>403</v>
+      </c>
+      <c r="H78" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L78" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M78" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O78" s="49" t="s">
+      <c r="L78" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M78" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N78" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P78" s="21"/>
@@ -28305,15 +28381,15 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -28340,15 +28416,15 @@
         <v>34</v>
       </c>
       <c r="L79" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N79" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O79" s="47" t="s">
+      <c r="O79" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P79" s="21"/>
@@ -28403,15 +28479,15 @@
       <c r="BM79" s="21"/>
       <c r="BN79" s="21"/>
     </row>
-    <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28423,7 +28499,7 @@
         <v>142</v>
       </c>
       <c r="G80" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H80" s="58" t="s">
         <v>218</v>
@@ -28431,85 +28507,85 @@
       <c r="I80" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M80" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="N80" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="22"/>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
-      <c r="AE80" s="22"/>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="22"/>
-      <c r="AI80" s="22"/>
-      <c r="AJ80" s="22"/>
-      <c r="AK80" s="22"/>
-      <c r="AL80" s="22"/>
-      <c r="AM80" s="22"/>
-      <c r="AN80" s="22"/>
-      <c r="AO80" s="22"/>
-      <c r="AP80" s="22"/>
-      <c r="AQ80" s="22"/>
-      <c r="AR80" s="22"/>
-      <c r="AS80" s="22"/>
-      <c r="AT80" s="22"/>
-      <c r="AU80" s="22"/>
-      <c r="AV80" s="22"/>
-      <c r="AW80" s="22"/>
-      <c r="AX80" s="22"/>
-      <c r="AY80" s="22"/>
-      <c r="AZ80" s="22"/>
-      <c r="BA80" s="22"/>
-      <c r="BB80" s="22"/>
-      <c r="BC80" s="22"/>
-      <c r="BD80" s="22"/>
-      <c r="BE80" s="22"/>
-      <c r="BF80" s="22"/>
-      <c r="BG80" s="22"/>
-      <c r="BH80" s="22"/>
-      <c r="BI80" s="22"/>
-      <c r="BJ80" s="22"/>
-      <c r="BK80" s="22"/>
-      <c r="BL80" s="22"/>
-      <c r="BM80" s="22"/>
-      <c r="BN80" s="22"/>
-    </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N80" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
+      <c r="AO80" s="21"/>
+      <c r="AP80" s="21"/>
+      <c r="AQ80" s="21"/>
+      <c r="AR80" s="21"/>
+      <c r="AS80" s="21"/>
+      <c r="AT80" s="21"/>
+      <c r="AU80" s="21"/>
+      <c r="AV80" s="21"/>
+      <c r="AW80" s="21"/>
+      <c r="AX80" s="21"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="21"/>
+      <c r="BA80" s="21"/>
+      <c r="BB80" s="21"/>
+      <c r="BC80" s="21"/>
+      <c r="BD80" s="21"/>
+      <c r="BE80" s="21"/>
+      <c r="BF80" s="21"/>
+      <c r="BG80" s="21"/>
+      <c r="BH80" s="21"/>
+      <c r="BI80" s="21"/>
+      <c r="BJ80" s="21"/>
+      <c r="BK80" s="21"/>
+      <c r="BL80" s="21"/>
+      <c r="BM80" s="21"/>
+      <c r="BN80" s="21"/>
+    </row>
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28529,22 +28605,22 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L81" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M81" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="N81" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O81" s="30" t="s">
+      <c r="O81" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P81" s="22"/>
@@ -28599,26 +28675,26 @@
       <c r="BM81" s="22"/>
       <c r="BN81" s="22"/>
     </row>
-    <row r="82" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="53" t="s">
+      <c r="C82" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="53" t="s">
+      <c r="F82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="54">
+      <c r="G82" s="24">
         <v>400</v>
       </c>
       <c r="H82" s="58" t="s">
@@ -28627,46 +28703,97 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="53" t="s">
+      <c r="J82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="54" t="s">
+      <c r="K82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N82" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O82" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L82" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+      <c r="BM82" s="22"/>
+      <c r="BN82" s="22"/>
+    </row>
+    <row r="83" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="24">
-        <v>403</v>
+      <c r="G83" s="54">
+        <v>400</v>
       </c>
       <c r="H83" s="58" t="s">
         <v>218</v>
@@ -28674,85 +28801,34 @@
       <c r="I83" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M83" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22"/>
-      <c r="AI83" s="22"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22"/>
-      <c r="AM83" s="22"/>
-      <c r="AN83" s="22"/>
-      <c r="AO83" s="22"/>
-      <c r="AP83" s="22"/>
-      <c r="AQ83" s="22"/>
-      <c r="AR83" s="22"/>
-      <c r="AS83" s="22"/>
-      <c r="AT83" s="22"/>
-      <c r="AU83" s="22"/>
-      <c r="AV83" s="22"/>
-      <c r="AW83" s="22"/>
-      <c r="AX83" s="22"/>
-      <c r="AY83" s="22"/>
-      <c r="AZ83" s="22"/>
-      <c r="BA83" s="22"/>
-      <c r="BB83" s="22"/>
-      <c r="BC83" s="22"/>
-      <c r="BD83" s="22"/>
-      <c r="BE83" s="22"/>
-      <c r="BF83" s="22"/>
-      <c r="BG83" s="22"/>
-      <c r="BH83" s="22"/>
-      <c r="BI83" s="22"/>
-      <c r="BJ83" s="22"/>
-      <c r="BK83" s="22"/>
-      <c r="BL83" s="22"/>
-      <c r="BM83" s="22"/>
-      <c r="BN83" s="22"/>
+      <c r="L83" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M83" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N83" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
@@ -28776,13 +28852,13 @@
         <v>7</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L84" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M84" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>62</v>
@@ -28844,13 +28920,13 @@
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
@@ -28877,10 +28953,10 @@
         <v>32</v>
       </c>
       <c r="L85" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M85" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
@@ -28942,15 +29018,15 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -28972,19 +29048,19 @@
         <v>7</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M86" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L86" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O86" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -29040,15 +29116,15 @@
     </row>
     <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -29058,7 +29134,7 @@
         <v>142</v>
       </c>
       <c r="G87" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H87" s="58" t="s">
         <v>218</v>
@@ -29066,23 +29142,23 @@
       <c r="I87" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>41</v>
+      <c r="K87" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M87" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N87" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O87" s="30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -29136,94 +29212,122 @@
       <c r="BM87" s="22"/>
       <c r="BN87" s="22"/>
     </row>
-    <row r="88" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="99" t="s">
+    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>71</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="24">
+        <v>404</v>
+      </c>
+      <c r="H88" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M88" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O88" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="22"/>
+      <c r="AE88" s="22"/>
+      <c r="AF88" s="22"/>
+      <c r="AG88" s="22"/>
+      <c r="AH88" s="22"/>
+      <c r="AI88" s="22"/>
+      <c r="AJ88" s="22"/>
+      <c r="AK88" s="22"/>
+      <c r="AL88" s="22"/>
+      <c r="AM88" s="22"/>
+      <c r="AN88" s="22"/>
+      <c r="AO88" s="22"/>
+      <c r="AP88" s="22"/>
+      <c r="AQ88" s="22"/>
+      <c r="AR88" s="22"/>
+      <c r="AS88" s="22"/>
+      <c r="AT88" s="22"/>
+      <c r="AU88" s="22"/>
+      <c r="AV88" s="22"/>
+      <c r="AW88" s="22"/>
+      <c r="AX88" s="22"/>
+      <c r="AY88" s="22"/>
+      <c r="AZ88" s="22"/>
+      <c r="BA88" s="22"/>
+      <c r="BB88" s="22"/>
+      <c r="BC88" s="22"/>
+      <c r="BD88" s="22"/>
+      <c r="BE88" s="22"/>
+      <c r="BF88" s="22"/>
+      <c r="BG88" s="22"/>
+      <c r="BH88" s="22"/>
+      <c r="BI88" s="22"/>
+      <c r="BJ88" s="22"/>
+      <c r="BK88" s="22"/>
+      <c r="BL88" s="22"/>
+      <c r="BM88" s="22"/>
+      <c r="BN88" s="22"/>
+    </row>
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
-      <c r="O88" s="99"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="21"/>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="21"/>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="21"/>
-    </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="100"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="100"/>
-      <c r="L89" s="100"/>
-      <c r="M89" s="100"/>
-      <c r="N89" s="100"/>
-      <c r="O89" s="100"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -29276,52 +29380,24 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="92">
-        <v>146</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F90" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="92">
-        <v>403</v>
-      </c>
-      <c r="H90" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L90" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N90" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O90" s="93" t="s">
-        <v>12</v>
-      </c>
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="100"/>
+      <c r="I90" s="100"/>
+      <c r="J90" s="100"/>
+      <c r="K90" s="100"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="100"/>
+      <c r="N90" s="100"/>
+      <c r="O90" s="100"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
       <c r="R90" s="21"/>
@@ -29374,50 +29450,50 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>72</v>
+    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="92">
+        <v>146</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G91" s="24">
-        <v>401</v>
-      </c>
-      <c r="H91" s="58" t="s">
+      <c r="G91" s="92">
+        <v>403</v>
+      </c>
+      <c r="H91" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I91" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L91" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M91" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N91" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O91" s="49" t="s">
+      <c r="L91" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M91" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N91" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P91" s="21"/>
@@ -29472,15 +29548,15 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -29507,15 +29583,15 @@
         <v>34</v>
       </c>
       <c r="L92" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N92" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O92" s="47" t="s">
+      <c r="O92" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P92" s="21"/>
@@ -29570,15 +29646,15 @@
       <c r="BM92" s="21"/>
       <c r="BN92" s="21"/>
     </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29590,7 +29666,7 @@
         <v>142</v>
       </c>
       <c r="G93" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H93" s="58" t="s">
         <v>218</v>
@@ -29602,81 +29678,81 @@
         <v>7</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L93" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M93" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N93" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
-      <c r="AI93" s="22"/>
-      <c r="AJ93" s="22"/>
-      <c r="AK93" s="22"/>
-      <c r="AL93" s="22"/>
-      <c r="AM93" s="22"/>
-      <c r="AN93" s="22"/>
-      <c r="AO93" s="22"/>
-      <c r="AP93" s="22"/>
-      <c r="AQ93" s="22"/>
-      <c r="AR93" s="22"/>
-      <c r="AS93" s="22"/>
-      <c r="AT93" s="22"/>
-      <c r="AU93" s="22"/>
-      <c r="AV93" s="22"/>
-      <c r="AW93" s="22"/>
-      <c r="AX93" s="22"/>
-      <c r="AY93" s="22"/>
-      <c r="AZ93" s="22"/>
-      <c r="BA93" s="22"/>
-      <c r="BB93" s="22"/>
-      <c r="BC93" s="22"/>
-      <c r="BD93" s="22"/>
-      <c r="BE93" s="22"/>
-      <c r="BF93" s="22"/>
-      <c r="BG93" s="22"/>
-      <c r="BH93" s="22"/>
-      <c r="BI93" s="22"/>
-      <c r="BJ93" s="22"/>
-      <c r="BK93" s="22"/>
-      <c r="BL93" s="22"/>
-      <c r="BM93" s="22"/>
-      <c r="BN93" s="22"/>
-    </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N93" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O93" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
+      <c r="AL93" s="21"/>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="21"/>
+      <c r="AO93" s="21"/>
+      <c r="AP93" s="21"/>
+      <c r="AQ93" s="21"/>
+      <c r="AR93" s="21"/>
+      <c r="AS93" s="21"/>
+      <c r="AT93" s="21"/>
+      <c r="AU93" s="21"/>
+      <c r="AV93" s="21"/>
+      <c r="AW93" s="21"/>
+      <c r="AX93" s="21"/>
+      <c r="AY93" s="21"/>
+      <c r="AZ93" s="21"/>
+      <c r="BA93" s="21"/>
+      <c r="BB93" s="21"/>
+      <c r="BC93" s="21"/>
+      <c r="BD93" s="21"/>
+      <c r="BE93" s="21"/>
+      <c r="BF93" s="21"/>
+      <c r="BG93" s="21"/>
+      <c r="BH93" s="21"/>
+      <c r="BI93" s="21"/>
+      <c r="BJ93" s="21"/>
+      <c r="BK93" s="21"/>
+      <c r="BL93" s="21"/>
+      <c r="BM93" s="21"/>
+      <c r="BN93" s="21"/>
+    </row>
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>150</v>
+      <c r="C94" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29700,13 +29776,13 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L94" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M94" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N94" s="30" t="s">
         <v>133</v>
@@ -29766,15 +29842,15 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
@@ -29798,13 +29874,13 @@
         <v>7</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L95" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M95" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N95" s="30" t="s">
         <v>133</v>
@@ -29864,26 +29940,26 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="53" t="s">
+      <c r="C96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="E96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="54">
+      <c r="G96" s="24">
         <v>400</v>
       </c>
       <c r="H96" s="58" t="s">
@@ -29892,46 +29968,97 @@
       <c r="I96" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J96" s="53" t="s">
+      <c r="J96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L96" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N96" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O96" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L96" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+      <c r="X96" s="22"/>
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="22"/>
+      <c r="AD96" s="22"/>
+      <c r="AE96" s="22"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="22"/>
+      <c r="AH96" s="22"/>
+      <c r="AI96" s="22"/>
+      <c r="AJ96" s="22"/>
+      <c r="AK96" s="22"/>
+      <c r="AL96" s="22"/>
+      <c r="AM96" s="22"/>
+      <c r="AN96" s="22"/>
+      <c r="AO96" s="22"/>
+      <c r="AP96" s="22"/>
+      <c r="AQ96" s="22"/>
+      <c r="AR96" s="22"/>
+      <c r="AS96" s="22"/>
+      <c r="AT96" s="22"/>
+      <c r="AU96" s="22"/>
+      <c r="AV96" s="22"/>
+      <c r="AW96" s="22"/>
+      <c r="AX96" s="22"/>
+      <c r="AY96" s="22"/>
+      <c r="AZ96" s="22"/>
+      <c r="BA96" s="22"/>
+      <c r="BB96" s="22"/>
+      <c r="BC96" s="22"/>
+      <c r="BD96" s="22"/>
+      <c r="BE96" s="22"/>
+      <c r="BF96" s="22"/>
+      <c r="BG96" s="22"/>
+      <c r="BH96" s="22"/>
+      <c r="BI96" s="22"/>
+      <c r="BJ96" s="22"/>
+      <c r="BK96" s="22"/>
+      <c r="BL96" s="22"/>
+      <c r="BM96" s="22"/>
+      <c r="BN96" s="22"/>
+    </row>
+    <row r="97" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="24">
-        <v>403</v>
+      <c r="G97" s="54">
+        <v>400</v>
       </c>
       <c r="H97" s="58" t="s">
         <v>218</v>
@@ -29939,85 +30066,34 @@
       <c r="I97" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L97" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M97" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
-      <c r="AI97" s="22"/>
-      <c r="AJ97" s="22"/>
-      <c r="AK97" s="22"/>
-      <c r="AL97" s="22"/>
-      <c r="AM97" s="22"/>
-      <c r="AN97" s="22"/>
-      <c r="AO97" s="22"/>
-      <c r="AP97" s="22"/>
-      <c r="AQ97" s="22"/>
-      <c r="AR97" s="22"/>
-      <c r="AS97" s="22"/>
-      <c r="AT97" s="22"/>
-      <c r="AU97" s="22"/>
-      <c r="AV97" s="22"/>
-      <c r="AW97" s="22"/>
-      <c r="AX97" s="22"/>
-      <c r="AY97" s="22"/>
-      <c r="AZ97" s="22"/>
-      <c r="BA97" s="22"/>
-      <c r="BB97" s="22"/>
-      <c r="BC97" s="22"/>
-      <c r="BD97" s="22"/>
-      <c r="BE97" s="22"/>
-      <c r="BF97" s="22"/>
-      <c r="BG97" s="22"/>
-      <c r="BH97" s="22"/>
-      <c r="BI97" s="22"/>
-      <c r="BJ97" s="22"/>
-      <c r="BK97" s="22"/>
-      <c r="BL97" s="22"/>
-      <c r="BM97" s="22"/>
-      <c r="BN97" s="22"/>
+      <c r="L97" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M97" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N97" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O97" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -30041,13 +30117,13 @@
         <v>7</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L98" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M98" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" s="30" t="s">
         <v>133</v>
@@ -30107,15 +30183,15 @@
       <c r="BM98" s="22"/>
       <c r="BN98" s="22"/>
     </row>
-    <row r="99" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -30142,10 +30218,10 @@
         <v>32</v>
       </c>
       <c r="L99" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M99" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
@@ -30207,15 +30283,15 @@
     </row>
     <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -30237,19 +30313,19 @@
         <v>7</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L100" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M100" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L100" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O100" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -30303,27 +30379,27 @@
       <c r="BM100" s="22"/>
       <c r="BN100" s="22"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G101" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H101" s="58" t="s">
         <v>218</v>
@@ -30337,17 +30413,17 @@
       <c r="K101" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L101" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M101" s="30" t="s">
-        <v>213</v>
+      <c r="L101" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M101" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30401,15 +30477,15 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30418,7 +30494,7 @@
         <v>142</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G102" s="24">
         <v>400</v>
@@ -30433,19 +30509,19 @@
         <v>7</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L102" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M102" s="30" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30500,14 +30576,14 @@
       <c r="BN102" s="22"/>
     </row>
     <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
-        <v>137</v>
+      <c r="A103" s="4">
+        <v>83</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="71" t="s">
-        <v>209</v>
+      <c r="C103" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30515,8 +30591,8 @@
       <c r="E103" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F103" s="26" t="s">
-        <v>143</v>
+      <c r="F103" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G103" s="24">
         <v>400</v>
@@ -30533,17 +30609,17 @@
       <c r="K103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L103" s="26">
-        <v>3009</v>
-      </c>
-      <c r="M103" s="71" t="s">
-        <v>209</v>
+      <c r="L103" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O103" s="33" t="s">
-        <v>214</v>
+      <c r="O103" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -30597,15 +30673,15 @@
       <c r="BM103" s="22"/>
       <c r="BN103" s="22"/>
     </row>
-    <row r="104" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30629,81 +30705,81 @@
         <v>7</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L104" s="26">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M104" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O104" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="21"/>
-      <c r="AJ104" s="21"/>
-      <c r="AK104" s="21"/>
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
-      <c r="AN104" s="21"/>
-      <c r="AO104" s="21"/>
-      <c r="AP104" s="21"/>
-      <c r="AQ104" s="21"/>
-      <c r="AR104" s="21"/>
-      <c r="AS104" s="21"/>
-      <c r="AT104" s="21"/>
-      <c r="AU104" s="21"/>
-      <c r="AV104" s="21"/>
-      <c r="AW104" s="21"/>
-      <c r="AX104" s="21"/>
-      <c r="AY104" s="21"/>
-      <c r="AZ104" s="21"/>
-      <c r="BA104" s="21"/>
-      <c r="BB104" s="21"/>
-      <c r="BC104" s="21"/>
-      <c r="BD104" s="21"/>
-      <c r="BE104" s="21"/>
-      <c r="BF104" s="21"/>
-      <c r="BG104" s="21"/>
-      <c r="BH104" s="21"/>
-      <c r="BI104" s="21"/>
-      <c r="BJ104" s="21"/>
-      <c r="BK104" s="21"/>
-      <c r="BL104" s="21"/>
-      <c r="BM104" s="21"/>
-      <c r="BN104" s="21"/>
-    </row>
-    <row r="105" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="22"/>
+      <c r="AD104" s="22"/>
+      <c r="AE104" s="22"/>
+      <c r="AF104" s="22"/>
+      <c r="AG104" s="22"/>
+      <c r="AH104" s="22"/>
+      <c r="AI104" s="22"/>
+      <c r="AJ104" s="22"/>
+      <c r="AK104" s="22"/>
+      <c r="AL104" s="22"/>
+      <c r="AM104" s="22"/>
+      <c r="AN104" s="22"/>
+      <c r="AO104" s="22"/>
+      <c r="AP104" s="22"/>
+      <c r="AQ104" s="22"/>
+      <c r="AR104" s="22"/>
+      <c r="AS104" s="22"/>
+      <c r="AT104" s="22"/>
+      <c r="AU104" s="22"/>
+      <c r="AV104" s="22"/>
+      <c r="AW104" s="22"/>
+      <c r="AX104" s="22"/>
+      <c r="AY104" s="22"/>
+      <c r="AZ104" s="22"/>
+      <c r="BA104" s="22"/>
+      <c r="BB104" s="22"/>
+      <c r="BC104" s="22"/>
+      <c r="BD104" s="22"/>
+      <c r="BE104" s="22"/>
+      <c r="BF104" s="22"/>
+      <c r="BG104" s="22"/>
+      <c r="BH104" s="22"/>
+      <c r="BI104" s="22"/>
+      <c r="BJ104" s="22"/>
+      <c r="BK104" s="22"/>
+      <c r="BL104" s="22"/>
+      <c r="BM104" s="22"/>
+      <c r="BN104" s="22"/>
+    </row>
+    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30730,10 +30806,10 @@
         <v>32</v>
       </c>
       <c r="L105" s="26">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
@@ -30793,15 +30869,15 @@
       <c r="BM105" s="21"/>
       <c r="BN105" s="21"/>
     </row>
-    <row r="106" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30813,7 +30889,7 @@
         <v>143</v>
       </c>
       <c r="G106" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H106" s="58" t="s">
         <v>218</v>
@@ -30828,16 +30904,16 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M106" s="71" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O106" s="30" t="s">
-        <v>12</v>
+      <c r="O106" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -30893,13 +30969,13 @@
     </row>
     <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="84" t="s">
-        <v>231</v>
+      <c r="C107" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>12</v>
@@ -30907,11 +30983,11 @@
       <c r="E107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>142</v>
+      <c r="F107" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G107" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H107" s="58" t="s">
         <v>218</v>
@@ -30926,16 +31002,16 @@
         <v>32</v>
       </c>
       <c r="L107" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M107" s="84" t="s">
-        <v>232</v>
+        <v>3012</v>
+      </c>
+      <c r="M107" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="N107" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -30989,26 +31065,26 @@
       <c r="BM107" s="21"/>
       <c r="BN107" s="21"/>
     </row>
-    <row r="108" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
-        <v>84</v>
-      </c>
-      <c r="B108" s="59" t="s">
+    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="26">
+        <v>141</v>
+      </c>
+      <c r="B108" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C108" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="58" t="s">
+      <c r="C108" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="72" t="s">
+      <c r="E108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F108" s="72" t="s">
+      <c r="F108" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G108" s="58">
+      <c r="G108" s="24">
         <v>400</v>
       </c>
       <c r="H108" s="58" t="s">
@@ -31017,23 +31093,23 @@
       <c r="I108" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J108" s="58" t="s">
+      <c r="J108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K108" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L108" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M108" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N108" s="59" t="s">
+      <c r="K108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M108" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="N108" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O108" s="59" t="s">
-        <v>68</v>
+      <c r="O108" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
@@ -31089,13 +31165,13 @@
     </row>
     <row r="109" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="58">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B109" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="97" t="s">
-        <v>283</v>
+      <c r="C109" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="D109" s="58" t="s">
         <v>12</v>
@@ -31122,16 +31198,16 @@
         <v>11</v>
       </c>
       <c r="L109" s="58">
-        <v>3014</v>
-      </c>
-      <c r="M109" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="N109" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M109" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N109" s="59" t="s">
         <v>133</v>
       </c>
       <c r="O109" s="59" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="P109" s="21"/>
       <c r="Q109" s="21"/>
@@ -31185,24 +31261,52 @@
       <c r="BM109" s="21"/>
       <c r="BN109" s="21"/>
     </row>
-    <row r="110" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="100"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="100"/>
-      <c r="G110" s="100"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
-      <c r="K110" s="100"/>
-      <c r="L110" s="100"/>
-      <c r="M110" s="100"/>
-      <c r="N110" s="100"/>
-      <c r="O110" s="100"/>
+    <row r="110" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="58">
+        <v>156</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" s="58">
+        <v>400</v>
+      </c>
+      <c r="H110" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J110" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="58">
+        <v>3014</v>
+      </c>
+      <c r="M110" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O110" s="59" t="s">
+        <v>282</v>
+      </c>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
@@ -31255,220 +31359,220 @@
       <c r="BM110" s="21"/>
       <c r="BN110" s="21"/>
     </row>
-    <row r="111" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="38">
+    <row r="111" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="100"/>
+      <c r="F111" s="100"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="100"/>
+      <c r="O111" s="100"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="21"/>
+      <c r="AF111" s="21"/>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="21"/>
+      <c r="AI111" s="21"/>
+      <c r="AJ111" s="21"/>
+      <c r="AK111" s="21"/>
+      <c r="AL111" s="21"/>
+      <c r="AM111" s="21"/>
+      <c r="AN111" s="21"/>
+      <c r="AO111" s="21"/>
+      <c r="AP111" s="21"/>
+      <c r="AQ111" s="21"/>
+      <c r="AR111" s="21"/>
+      <c r="AS111" s="21"/>
+      <c r="AT111" s="21"/>
+      <c r="AU111" s="21"/>
+      <c r="AV111" s="21"/>
+      <c r="AW111" s="21"/>
+      <c r="AX111" s="21"/>
+      <c r="AY111" s="21"/>
+      <c r="AZ111" s="21"/>
+      <c r="BA111" s="21"/>
+      <c r="BB111" s="21"/>
+      <c r="BC111" s="21"/>
+      <c r="BD111" s="21"/>
+      <c r="BE111" s="21"/>
+      <c r="BF111" s="21"/>
+      <c r="BG111" s="21"/>
+      <c r="BH111" s="21"/>
+      <c r="BI111" s="21"/>
+      <c r="BJ111" s="21"/>
+      <c r="BK111" s="21"/>
+      <c r="BL111" s="21"/>
+      <c r="BM111" s="21"/>
+      <c r="BN111" s="21"/>
+    </row>
+    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="38">
         <v>145</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" s="24">
-        <v>400</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J111" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L111" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M111" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N111" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O111" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="35"/>
-      <c r="X111" s="35"/>
-      <c r="Y111" s="35"/>
-      <c r="Z111" s="35"/>
-      <c r="AA111" s="35"/>
-      <c r="AB111" s="35"/>
-      <c r="AC111" s="35"/>
-      <c r="AD111" s="35"/>
-      <c r="AE111" s="35"/>
-      <c r="AF111" s="35"/>
-      <c r="AG111" s="35"/>
-      <c r="AH111" s="35"/>
-      <c r="AI111" s="35"/>
-      <c r="AJ111" s="35"/>
-      <c r="AK111" s="35"/>
-      <c r="AL111" s="35"/>
-      <c r="AM111" s="35"/>
-      <c r="AN111" s="35"/>
-      <c r="AO111" s="35"/>
-      <c r="AP111" s="35"/>
-      <c r="AQ111" s="35"/>
-      <c r="AR111" s="35"/>
-      <c r="AS111" s="35"/>
-      <c r="AT111" s="35"/>
-      <c r="AU111" s="35"/>
-      <c r="AV111" s="35"/>
-      <c r="AW111" s="35"/>
-      <c r="AX111" s="35"/>
-      <c r="AY111" s="35"/>
-      <c r="AZ111" s="35"/>
-      <c r="BA111" s="35"/>
-      <c r="BB111" s="35"/>
-      <c r="BC111" s="35"/>
-      <c r="BD111" s="35"/>
-      <c r="BE111" s="35"/>
-      <c r="BF111" s="35"/>
-      <c r="BG111" s="35"/>
-      <c r="BH111" s="35"/>
-      <c r="BI111" s="35"/>
-      <c r="BJ111" s="35"/>
-      <c r="BK111" s="35"/>
-      <c r="BL111" s="35"/>
-      <c r="BM111" s="35"/>
-      <c r="BN111" s="35"/>
-    </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>85</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" s="4">
-        <v>8</v>
+      <c r="C112" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F112" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="24">
+        <v>400</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M112" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N112" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="35"/>
+      <c r="AA112" s="35"/>
+      <c r="AB112" s="35"/>
+      <c r="AC112" s="35"/>
+      <c r="AD112" s="35"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="35"/>
+      <c r="AH112" s="35"/>
+      <c r="AI112" s="35"/>
+      <c r="AJ112" s="35"/>
+      <c r="AK112" s="35"/>
+      <c r="AL112" s="35"/>
+      <c r="AM112" s="35"/>
+      <c r="AN112" s="35"/>
+      <c r="AO112" s="35"/>
+      <c r="AP112" s="35"/>
+      <c r="AQ112" s="35"/>
+      <c r="AR112" s="35"/>
+      <c r="AS112" s="35"/>
+      <c r="AT112" s="35"/>
+      <c r="AU112" s="35"/>
+      <c r="AV112" s="35"/>
+      <c r="AW112" s="35"/>
+      <c r="AX112" s="35"/>
+      <c r="AY112" s="35"/>
+      <c r="AZ112" s="35"/>
+      <c r="BA112" s="35"/>
+      <c r="BB112" s="35"/>
+      <c r="BC112" s="35"/>
+      <c r="BD112" s="35"/>
+      <c r="BE112" s="35"/>
+      <c r="BF112" s="35"/>
+      <c r="BG112" s="35"/>
+      <c r="BH112" s="35"/>
+      <c r="BI112" s="35"/>
+      <c r="BJ112" s="35"/>
+      <c r="BK112" s="35"/>
+      <c r="BL112" s="35"/>
+      <c r="BM112" s="35"/>
+      <c r="BN112" s="35"/>
+    </row>
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>85</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="4">
+        <v>8</v>
+      </c>
+      <c r="E113" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="44">
+      <c r="F113" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="44">
         <v>200</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H113" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I112" s="24" t="s">
+      <c r="I113" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L112" s="4">
+      <c r="L113" s="4">
         <v>1010</v>
       </c>
-      <c r="M112" s="30" t="s">
+      <c r="M113" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N112" s="30" t="s">
+      <c r="N113" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O112" s="30" t="s">
+      <c r="O113" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="22"/>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
-      <c r="AE112" s="22"/>
-      <c r="AF112" s="22"/>
-      <c r="AG112" s="22"/>
-      <c r="AH112" s="22"/>
-      <c r="AI112" s="22"/>
-      <c r="AJ112" s="22"/>
-      <c r="AK112" s="22"/>
-      <c r="AL112" s="22"/>
-      <c r="AM112" s="22"/>
-      <c r="AN112" s="22"/>
-      <c r="AO112" s="22"/>
-      <c r="AP112" s="22"/>
-      <c r="AQ112" s="22"/>
-      <c r="AR112" s="22"/>
-      <c r="AS112" s="22"/>
-      <c r="AT112" s="22"/>
-      <c r="AU112" s="22"/>
-      <c r="AV112" s="22"/>
-      <c r="AW112" s="22"/>
-      <c r="AX112" s="22"/>
-      <c r="AY112" s="22"/>
-      <c r="AZ112" s="22"/>
-      <c r="BA112" s="22"/>
-      <c r="BB112" s="22"/>
-      <c r="BC112" s="22"/>
-      <c r="BD112" s="22"/>
-      <c r="BE112" s="22"/>
-      <c r="BF112" s="22"/>
-      <c r="BG112" s="22"/>
-      <c r="BH112" s="22"/>
-      <c r="BI112" s="22"/>
-      <c r="BJ112" s="22"/>
-      <c r="BK112" s="22"/>
-      <c r="BL112" s="22"/>
-      <c r="BM112" s="22"/>
-      <c r="BN112" s="22"/>
-    </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="99"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="99"/>
-      <c r="O113" s="99"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
@@ -31521,24 +31625,24 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="100"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="100"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="100"/>
-      <c r="J114" s="100"/>
-      <c r="K114" s="100"/>
-      <c r="L114" s="100"/>
-      <c r="M114" s="100"/>
-      <c r="N114" s="100"/>
-      <c r="O114" s="100"/>
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
@@ -31591,160 +31695,183 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="92">
+    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A115" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="100"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="100"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="100"/>
+      <c r="G115" s="100"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="100"/>
+      <c r="J115" s="100"/>
+      <c r="K115" s="100"/>
+      <c r="L115" s="100"/>
+      <c r="M115" s="100"/>
+      <c r="N115" s="100"/>
+      <c r="O115" s="100"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+      <c r="BM115" s="22"/>
+      <c r="BN115" s="22"/>
+    </row>
+    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="92">
         <v>146</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D115" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G115" s="92">
-        <v>403</v>
-      </c>
-      <c r="H115" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J115" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K115" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L115" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M115" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N115" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O115" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="21"/>
-      <c r="AC115" s="21"/>
-      <c r="AD115" s="21"/>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="21"/>
-      <c r="BD115" s="21"/>
-      <c r="BE115" s="21"/>
-      <c r="BF115" s="21"/>
-      <c r="BG115" s="21"/>
-      <c r="BH115" s="21"/>
-      <c r="BI115" s="21"/>
-      <c r="BJ115" s="21"/>
-      <c r="BK115" s="21"/>
-      <c r="BL115" s="21"/>
-      <c r="BM115" s="21"/>
-      <c r="BN115" s="21"/>
-    </row>
-    <row r="116" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>86</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G116" s="24">
-        <v>401</v>
-      </c>
-      <c r="H116" s="58" t="s">
+      <c r="G116" s="92">
+        <v>403</v>
+      </c>
+      <c r="H116" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I116" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L116" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N116" s="32" t="s">
+      <c r="L116" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M116" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N116" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O116" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O116" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="21"/>
+      <c r="AB116" s="21"/>
+      <c r="AC116" s="21"/>
+      <c r="AD116" s="21"/>
+      <c r="AE116" s="21"/>
+      <c r="AF116" s="21"/>
+      <c r="AG116" s="21"/>
+      <c r="AH116" s="21"/>
+      <c r="AI116" s="21"/>
+      <c r="AJ116" s="21"/>
+      <c r="AK116" s="21"/>
+      <c r="AL116" s="21"/>
+      <c r="AM116" s="21"/>
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+      <c r="AP116" s="21"/>
+      <c r="AQ116" s="21"/>
+      <c r="AR116" s="21"/>
+      <c r="AS116" s="21"/>
+      <c r="AT116" s="21"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
+      <c r="AW116" s="21"/>
+      <c r="AX116" s="21"/>
+      <c r="AY116" s="21"/>
+      <c r="AZ116" s="21"/>
+      <c r="BA116" s="21"/>
+      <c r="BB116" s="21"/>
+      <c r="BC116" s="21"/>
+      <c r="BD116" s="21"/>
+      <c r="BE116" s="21"/>
+      <c r="BF116" s="21"/>
+      <c r="BG116" s="21"/>
+      <c r="BH116" s="21"/>
+      <c r="BI116" s="21"/>
+      <c r="BJ116" s="21"/>
+      <c r="BK116" s="21"/>
+      <c r="BL116" s="21"/>
+      <c r="BM116" s="21"/>
+      <c r="BN116" s="21"/>
+    </row>
+    <row r="117" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>149</v>
+      <c r="C117" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31771,78 +31898,27 @@
         <v>34</v>
       </c>
       <c r="L117" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M117" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N117" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O117" s="47" t="s">
+      <c r="O117" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="22"/>
-      <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-      <c r="Y117" s="22"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="22"/>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="22"/>
-      <c r="AD117" s="22"/>
-      <c r="AE117" s="22"/>
-      <c r="AF117" s="22"/>
-      <c r="AG117" s="22"/>
-      <c r="AH117" s="22"/>
-      <c r="AI117" s="22"/>
-      <c r="AJ117" s="22"/>
-      <c r="AK117" s="22"/>
-      <c r="AL117" s="22"/>
-      <c r="AM117" s="22"/>
-      <c r="AN117" s="22"/>
-      <c r="AO117" s="22"/>
-      <c r="AP117" s="22"/>
-      <c r="AQ117" s="22"/>
-      <c r="AR117" s="22"/>
-      <c r="AS117" s="22"/>
-      <c r="AT117" s="22"/>
-      <c r="AU117" s="22"/>
-      <c r="AV117" s="22"/>
-      <c r="AW117" s="22"/>
-      <c r="AX117" s="22"/>
-      <c r="AY117" s="22"/>
-      <c r="AZ117" s="22"/>
-      <c r="BA117" s="22"/>
-      <c r="BB117" s="22"/>
-      <c r="BC117" s="22"/>
-      <c r="BD117" s="22"/>
-      <c r="BE117" s="22"/>
-      <c r="BF117" s="22"/>
-      <c r="BG117" s="22"/>
-      <c r="BH117" s="22"/>
-      <c r="BI117" s="22"/>
-      <c r="BJ117" s="22"/>
-      <c r="BK117" s="22"/>
-      <c r="BL117" s="22"/>
-      <c r="BM117" s="22"/>
-      <c r="BN117" s="22"/>
     </row>
     <row r="118" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31854,7 +31930,7 @@
         <v>142</v>
       </c>
       <c r="G118" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H118" s="58" t="s">
         <v>218</v>
@@ -31866,19 +31942,19 @@
         <v>7</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L118" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M118" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N118" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O118" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L118" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M118" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N118" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O118" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="P118" s="22"/>
       <c r="Q118" s="22"/>
@@ -31932,15 +32008,15 @@
       <c r="BM118" s="22"/>
       <c r="BN118" s="22"/>
     </row>
-    <row r="119" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>150</v>
+      <c r="C119" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -31964,13 +32040,13 @@
         <v>7</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L119" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M119" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N119" s="30" t="s">
         <v>136</v>
@@ -32030,15 +32106,15 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>12</v>
@@ -32062,13 +32138,13 @@
         <v>7</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L120" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>136</v>
@@ -32128,26 +32204,26 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C121" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D121" s="53" t="s">
+      <c r="C121" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F121" s="53" t="s">
+      <c r="F121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G121" s="54">
+      <c r="G121" s="24">
         <v>400</v>
       </c>
       <c r="H121" s="58" t="s">
@@ -32156,23 +32232,23 @@
       <c r="I121" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J121" s="53" t="s">
+      <c r="J121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K121" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L121" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M121" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N121" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O121" s="63" t="s">
-        <v>12</v>
+      <c r="K121" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L121" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M121" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N121" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O121" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P121" s="22"/>
       <c r="Q121" s="22"/>
@@ -32226,27 +32302,27 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="24">
-        <v>404</v>
+      <c r="G122" s="54">
+        <v>400</v>
       </c>
       <c r="H122" s="58" t="s">
         <v>218</v>
@@ -32254,85 +32330,85 @@
       <c r="I122" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J122" s="4" t="s">
+      <c r="J122" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L122" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M122" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N122" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O122" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="21"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="21"/>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="21"/>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="21"/>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="21"/>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="21"/>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="21"/>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="21"/>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="21"/>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="21"/>
-    </row>
-    <row r="123" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L122" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M122" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N122" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O122" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="22"/>
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="22"/>
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="22"/>
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="22"/>
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="22"/>
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="22"/>
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="22"/>
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="22"/>
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="22"/>
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="22"/>
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="22"/>
+    </row>
+    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>12</v>
@@ -32356,13 +32432,13 @@
         <v>7</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L123" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N123" s="30" t="s">
         <v>136</v>
@@ -32370,16 +32446,67 @@
       <c r="O123" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21"/>
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21"/>
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21"/>
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="21"/>
+      <c r="AX123" s="21"/>
+      <c r="AY123" s="21"/>
+      <c r="AZ123" s="21"/>
+      <c r="BA123" s="21"/>
+      <c r="BB123" s="21"/>
+      <c r="BC123" s="21"/>
+      <c r="BD123" s="21"/>
+      <c r="BE123" s="21"/>
+      <c r="BF123" s="21"/>
+      <c r="BG123" s="21"/>
+      <c r="BH123" s="21"/>
+      <c r="BI123" s="21"/>
+      <c r="BJ123" s="21"/>
+      <c r="BK123" s="21"/>
+      <c r="BL123" s="21"/>
+      <c r="BM123" s="21"/>
+      <c r="BN123" s="21"/>
+    </row>
+    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>12</v>
@@ -32391,7 +32518,7 @@
         <v>142</v>
       </c>
       <c r="G124" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H124" s="58" t="s">
         <v>218</v>
@@ -32406,10 +32533,10 @@
         <v>32</v>
       </c>
       <c r="L124" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
@@ -32418,15 +32545,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A125" s="26">
-        <v>141</v>
+    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>94</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="84" t="s">
-        <v>231</v>
+      <c r="C125" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>12</v>
@@ -32434,11 +32561,11 @@
       <c r="E125" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F125" s="26" t="s">
+      <c r="F125" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32452,91 +32579,40 @@
       <c r="K125" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M125" s="84" t="s">
-        <v>232</v>
+      <c r="L125" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O125" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
-      <c r="S125" s="21"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="21"/>
-      <c r="V125" s="21"/>
-      <c r="W125" s="21"/>
-      <c r="X125" s="21"/>
-      <c r="Y125" s="21"/>
-      <c r="Z125" s="21"/>
-      <c r="AA125" s="21"/>
-      <c r="AB125" s="21"/>
-      <c r="AC125" s="21"/>
-      <c r="AD125" s="21"/>
-      <c r="AE125" s="21"/>
-      <c r="AF125" s="21"/>
-      <c r="AG125" s="21"/>
-      <c r="AH125" s="21"/>
-      <c r="AI125" s="21"/>
-      <c r="AJ125" s="21"/>
-      <c r="AK125" s="21"/>
-      <c r="AL125" s="21"/>
-      <c r="AM125" s="21"/>
-      <c r="AN125" s="21"/>
-      <c r="AO125" s="21"/>
-      <c r="AP125" s="21"/>
-      <c r="AQ125" s="21"/>
-      <c r="AR125" s="21"/>
-      <c r="AS125" s="21"/>
-      <c r="AT125" s="21"/>
-      <c r="AU125" s="21"/>
-      <c r="AV125" s="21"/>
-      <c r="AW125" s="21"/>
-      <c r="AX125" s="21"/>
-      <c r="AY125" s="21"/>
-      <c r="AZ125" s="21"/>
-      <c r="BA125" s="21"/>
-      <c r="BB125" s="21"/>
-      <c r="BC125" s="21"/>
-      <c r="BD125" s="21"/>
-      <c r="BE125" s="21"/>
-      <c r="BF125" s="21"/>
-      <c r="BG125" s="21"/>
-      <c r="BH125" s="21"/>
-      <c r="BI125" s="21"/>
-      <c r="BJ125" s="21"/>
-      <c r="BK125" s="21"/>
-      <c r="BL125" s="21"/>
-      <c r="BM125" s="21"/>
-      <c r="BN125" s="21"/>
-    </row>
-    <row r="126" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>141</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="C126" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G126" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H126" s="58" t="s">
         <v>218</v>
@@ -32548,32 +32624,83 @@
         <v>7</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L126" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L126" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M126" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N126" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O126" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="21"/>
+      <c r="AI126" s="21"/>
+      <c r="AJ126" s="21"/>
+      <c r="AK126" s="21"/>
+      <c r="AL126" s="21"/>
+      <c r="AM126" s="21"/>
+      <c r="AN126" s="21"/>
+      <c r="AO126" s="21"/>
+      <c r="AP126" s="21"/>
+      <c r="AQ126" s="21"/>
+      <c r="AR126" s="21"/>
+      <c r="AS126" s="21"/>
+      <c r="AT126" s="21"/>
+      <c r="AU126" s="21"/>
+      <c r="AV126" s="21"/>
+      <c r="AW126" s="21"/>
+      <c r="AX126" s="21"/>
+      <c r="AY126" s="21"/>
+      <c r="AZ126" s="21"/>
+      <c r="BA126" s="21"/>
+      <c r="BB126" s="21"/>
+      <c r="BC126" s="21"/>
+      <c r="BD126" s="21"/>
+      <c r="BE126" s="21"/>
+      <c r="BF126" s="21"/>
+      <c r="BG126" s="21"/>
+      <c r="BH126" s="21"/>
+      <c r="BI126" s="21"/>
+      <c r="BJ126" s="21"/>
+      <c r="BK126" s="21"/>
+      <c r="BL126" s="21"/>
+      <c r="BM126" s="21"/>
+      <c r="BN126" s="21"/>
+    </row>
+    <row r="127" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -32583,7 +32710,7 @@
         <v>142</v>
       </c>
       <c r="G127" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H127" s="58" t="s">
         <v>218</v>
@@ -32597,187 +32724,187 @@
       <c r="K127" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L127" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M127" s="30" t="s">
-        <v>19</v>
+      <c r="L127" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O127" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22"/>
-      <c r="T127" s="22"/>
-      <c r="U127" s="22"/>
-      <c r="V127" s="22"/>
-      <c r="W127" s="22"/>
-      <c r="X127" s="22"/>
-      <c r="Y127" s="22"/>
-      <c r="Z127" s="22"/>
-      <c r="AA127" s="22"/>
-      <c r="AB127" s="22"/>
-      <c r="AC127" s="22"/>
-      <c r="AD127" s="22"/>
-      <c r="AE127" s="22"/>
-      <c r="AF127" s="22"/>
-      <c r="AG127" s="22"/>
-      <c r="AH127" s="22"/>
-      <c r="AI127" s="22"/>
-      <c r="AJ127" s="22"/>
-      <c r="AK127" s="22"/>
-      <c r="AL127" s="22"/>
-      <c r="AM127" s="22"/>
-      <c r="AN127" s="22"/>
-      <c r="AO127" s="22"/>
-      <c r="AP127" s="22"/>
-      <c r="AQ127" s="22"/>
-      <c r="AR127" s="22"/>
-      <c r="AS127" s="22"/>
-      <c r="AT127" s="22"/>
-      <c r="AU127" s="22"/>
-      <c r="AV127" s="22"/>
-      <c r="AW127" s="22"/>
-      <c r="AX127" s="22"/>
-      <c r="AY127" s="22"/>
-      <c r="AZ127" s="22"/>
-      <c r="BA127" s="22"/>
-      <c r="BB127" s="22"/>
-      <c r="BC127" s="22"/>
-      <c r="BD127" s="22"/>
-      <c r="BE127" s="22"/>
-      <c r="BF127" s="22"/>
-      <c r="BG127" s="22"/>
-      <c r="BH127" s="22"/>
-      <c r="BI127" s="22"/>
-      <c r="BJ127" s="22"/>
-      <c r="BK127" s="22"/>
-      <c r="BL127" s="22"/>
-      <c r="BM127" s="22"/>
-      <c r="BN127" s="22"/>
-    </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A128" s="26">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>96</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C128" s="84" t="s">
+      <c r="C128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" s="24">
+        <v>400</v>
+      </c>
+      <c r="H128" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M128" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N128" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O128" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="22"/>
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="22"/>
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="22"/>
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="22"/>
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+      <c r="AL128" s="22"/>
+      <c r="AM128" s="22"/>
+      <c r="AN128" s="22"/>
+      <c r="AO128" s="22"/>
+      <c r="AP128" s="22"/>
+      <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
+      <c r="AS128" s="22"/>
+      <c r="AT128" s="22"/>
+      <c r="AU128" s="22"/>
+      <c r="AV128" s="22"/>
+      <c r="AW128" s="22"/>
+      <c r="AX128" s="22"/>
+      <c r="AY128" s="22"/>
+      <c r="AZ128" s="22"/>
+      <c r="BA128" s="22"/>
+      <c r="BB128" s="22"/>
+      <c r="BC128" s="22"/>
+      <c r="BD128" s="22"/>
+      <c r="BE128" s="22"/>
+      <c r="BF128" s="22"/>
+      <c r="BG128" s="22"/>
+      <c r="BH128" s="22"/>
+      <c r="BI128" s="22"/>
+      <c r="BJ128" s="22"/>
+      <c r="BK128" s="22"/>
+      <c r="BL128" s="22"/>
+      <c r="BM128" s="22"/>
+      <c r="BN128" s="22"/>
+    </row>
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A129" s="26">
+        <v>142</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="65">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="65">
         <v>413</v>
       </c>
-      <c r="H128" s="65" t="s">
+      <c r="H129" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I128" s="65"/>
-      <c r="J128" s="58" t="s">
+      <c r="I129" s="65"/>
+      <c r="J129" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="84" t="s">
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="N128" s="33"/>
-      <c r="O128" s="33"/>
-    </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A129" s="100" t="s">
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="100"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="100"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="100"/>
-      <c r="J129" s="100"/>
-      <c r="K129" s="100"/>
-      <c r="L129" s="100"/>
-      <c r="M129" s="100"/>
-      <c r="N129" s="100"/>
-      <c r="O129" s="100"/>
-    </row>
-    <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="100"/>
+      <c r="N130" s="100"/>
+      <c r="O130" s="100"/>
+    </row>
+    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>154</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" s="4">
-        <v>200</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L130" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M130" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="N130" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="O130" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
-        <v>151</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="96" t="s">
-        <v>271</v>
+      <c r="C131" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G131" s="38">
+      <c r="G131" s="4">
         <v>200</v>
       </c>
       <c r="H131" s="24" t="s">
@@ -32792,28 +32919,28 @@
       <c r="K131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L131" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M131" s="96" t="s">
-        <v>271</v>
+      <c r="L131" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M131" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O131" s="96" t="s">
-        <v>270</v>
+      <c r="O131" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>97</v>
+      <c r="A132" s="8">
+        <v>151</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>87</v>
+      <c r="C132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
@@ -32836,33 +32963,33 @@
       <c r="J132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K132" s="5" t="s">
-        <v>32</v>
+      <c r="K132" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L132" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M132" s="32" t="s">
-        <v>40</v>
+        <v>4005</v>
+      </c>
+      <c r="M132" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="31" t="s">
-        <v>64</v>
+      <c r="O132" s="96" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="26" t="s">
+      <c r="C133" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -32883,31 +33010,31 @@
       <c r="J133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="26" t="s">
+      <c r="K133" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L133" s="26">
-        <v>4003</v>
+      <c r="L133" s="8">
+        <v>4002</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O133" s="33" t="s">
-        <v>1</v>
+      <c r="O133" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D134" s="26" t="s">
         <v>12</v>
@@ -32934,35 +33061,35 @@
         <v>32</v>
       </c>
       <c r="L134" s="26">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="N134" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O134" s="31" t="s">
-        <v>186</v>
+      <c r="O134" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D135" s="4">
-        <v>8</v>
-      </c>
-      <c r="E135" s="24" t="s">
+      <c r="C135" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G135" s="38">
@@ -32974,217 +33101,217 @@
       <c r="I135" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M135" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N135" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O135" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>99</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="4">
+        <v>8</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" s="38">
+        <v>200</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L135" s="4">
+      <c r="L136" s="4">
         <v>1010</v>
       </c>
-      <c r="M135" s="30" t="s">
+      <c r="M136" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N135" s="30" t="s">
+      <c r="N136" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O135" s="30" t="s">
+      <c r="O136" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="99" t="s">
+    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B136" s="99"/>
-      <c r="C136" s="99"/>
-      <c r="D136" s="99"/>
-      <c r="E136" s="99"/>
-      <c r="F136" s="99"/>
-      <c r="G136" s="99"/>
-      <c r="H136" s="99"/>
-      <c r="I136" s="99"/>
-      <c r="J136" s="99"/>
-      <c r="K136" s="99"/>
-      <c r="L136" s="99"/>
-      <c r="M136" s="99"/>
-      <c r="N136" s="99"/>
-      <c r="O136" s="99"/>
-    </row>
-    <row r="137" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A137" s="100" t="s">
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
+      <c r="N137" s="99"/>
+      <c r="O137" s="99"/>
+    </row>
+    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A138" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="100"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="100"/>
-      <c r="F137" s="100"/>
-      <c r="G137" s="100"/>
-      <c r="H137" s="100"/>
-      <c r="I137" s="100"/>
-      <c r="J137" s="100"/>
-      <c r="K137" s="100"/>
-      <c r="L137" s="100"/>
-      <c r="M137" s="100"/>
-      <c r="N137" s="100"/>
-      <c r="O137" s="100"/>
-    </row>
-    <row r="138" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="92">
+      <c r="B138" s="100"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="100"/>
+      <c r="E138" s="100"/>
+      <c r="F138" s="100"/>
+      <c r="G138" s="100"/>
+      <c r="H138" s="100"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="100"/>
+      <c r="K138" s="100"/>
+      <c r="L138" s="100"/>
+      <c r="M138" s="100"/>
+      <c r="N138" s="100"/>
+      <c r="O138" s="100"/>
+    </row>
+    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="92">
         <v>146</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D138" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" s="92">
-        <v>403</v>
-      </c>
-      <c r="H138" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I138" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J138" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="K138" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="L138" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M138" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N138" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O138" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P138" s="21"/>
-      <c r="Q138" s="21"/>
-      <c r="R138" s="21"/>
-      <c r="S138" s="21"/>
-      <c r="T138" s="21"/>
-      <c r="U138" s="21"/>
-      <c r="V138" s="21"/>
-      <c r="W138" s="21"/>
-      <c r="X138" s="21"/>
-      <c r="Y138" s="21"/>
-      <c r="Z138" s="21"/>
-      <c r="AA138" s="21"/>
-      <c r="AB138" s="21"/>
-      <c r="AC138" s="21"/>
-      <c r="AD138" s="21"/>
-      <c r="AE138" s="21"/>
-      <c r="AF138" s="21"/>
-      <c r="AG138" s="21"/>
-      <c r="AH138" s="21"/>
-      <c r="AI138" s="21"/>
-      <c r="AJ138" s="21"/>
-      <c r="AK138" s="21"/>
-      <c r="AL138" s="21"/>
-      <c r="AM138" s="21"/>
-      <c r="AN138" s="21"/>
-      <c r="AO138" s="21"/>
-      <c r="AP138" s="21"/>
-      <c r="AQ138" s="21"/>
-      <c r="AR138" s="21"/>
-      <c r="AS138" s="21"/>
-      <c r="AT138" s="21"/>
-      <c r="AU138" s="21"/>
-      <c r="AV138" s="21"/>
-      <c r="AW138" s="21"/>
-      <c r="AX138" s="21"/>
-      <c r="AY138" s="21"/>
-      <c r="AZ138" s="21"/>
-      <c r="BA138" s="21"/>
-      <c r="BB138" s="21"/>
-      <c r="BC138" s="21"/>
-      <c r="BD138" s="21"/>
-      <c r="BE138" s="21"/>
-      <c r="BF138" s="21"/>
-      <c r="BG138" s="21"/>
-      <c r="BH138" s="21"/>
-      <c r="BI138" s="21"/>
-      <c r="BJ138" s="21"/>
-      <c r="BK138" s="21"/>
-      <c r="BL138" s="21"/>
-      <c r="BM138" s="21"/>
-      <c r="BN138" s="21"/>
-    </row>
-    <row r="139" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>102</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="24">
-        <v>401</v>
-      </c>
-      <c r="H139" s="65" t="s">
+      <c r="G139" s="92">
+        <v>403</v>
+      </c>
+      <c r="H139" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I139" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L139" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M139" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N139" s="32" t="s">
+      <c r="L139" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M139" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N139" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O139" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O139" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="21"/>
+      <c r="AI139" s="21"/>
+      <c r="AJ139" s="21"/>
+      <c r="AK139" s="21"/>
+      <c r="AL139" s="21"/>
+      <c r="AM139" s="21"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+      <c r="AP139" s="21"/>
+      <c r="AQ139" s="21"/>
+      <c r="AR139" s="21"/>
+      <c r="AS139" s="21"/>
+      <c r="AT139" s="21"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="21"/>
+      <c r="AW139" s="21"/>
+      <c r="AX139" s="21"/>
+      <c r="AY139" s="21"/>
+      <c r="AZ139" s="21"/>
+      <c r="BA139" s="21"/>
+      <c r="BB139" s="21"/>
+      <c r="BC139" s="21"/>
+      <c r="BD139" s="21"/>
+      <c r="BE139" s="21"/>
+      <c r="BF139" s="21"/>
+      <c r="BG139" s="21"/>
+      <c r="BH139" s="21"/>
+      <c r="BI139" s="21"/>
+      <c r="BJ139" s="21"/>
+      <c r="BK139" s="21"/>
+      <c r="BL139" s="21"/>
+      <c r="BM139" s="21"/>
+      <c r="BN139" s="21"/>
+    </row>
+    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="23" t="s">
-        <v>149</v>
+      <c r="C140" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>12</v>
@@ -33211,39 +33338,39 @@
         <v>34</v>
       </c>
       <c r="L140" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M140" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N140" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O140" s="47" t="s">
+      <c r="O140" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D141" s="24">
-        <v>201</v>
-      </c>
-      <c r="E141" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="44">
-        <v>400</v>
+      <c r="G141" s="24">
+        <v>401</v>
       </c>
       <c r="H141" s="65" t="s">
         <v>218</v>
@@ -33251,34 +33378,34 @@
       <c r="I141" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="24" t="s">
+      <c r="J141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K141" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L141" s="40">
-        <v>1003</v>
-      </c>
-      <c r="M141" s="32" t="s">
-        <v>14</v>
+      <c r="K141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L141" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M141" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="N141" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O141" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O141" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="D142" s="24">
         <v>201</v>
@@ -33289,7 +33416,7 @@
       <c r="F142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="24">
+      <c r="G142" s="44">
         <v>400</v>
       </c>
       <c r="H142" s="65" t="s">
@@ -33302,13 +33429,13 @@
         <v>7</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L142" s="40">
+        <v>1003</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N142" s="32" t="s">
         <v>57</v>
@@ -33317,26 +33444,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C143" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="53" t="s">
+      <c r="C143" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" s="24">
+        <v>201</v>
+      </c>
+      <c r="E143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F143" s="53" t="s">
+      <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="54">
+      <c r="G143" s="24">
         <v>400</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33345,46 +33472,46 @@
       <c r="I143" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J143" s="53" t="s">
+      <c r="J143" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K143" s="54" t="s">
+      <c r="K143" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L143" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M143" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N143" s="52" t="s">
+      <c r="L143" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M143" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O143" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O143" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="24">
-        <v>202</v>
-      </c>
-      <c r="E144" s="24" t="s">
+      <c r="C144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="24" t="s">
+      <c r="F144" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="44">
-        <v>403</v>
+      <c r="G144" s="54">
+        <v>400</v>
       </c>
       <c r="H144" s="65" t="s">
         <v>218</v>
@@ -33392,34 +33519,34 @@
       <c r="I144" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J144" s="24" t="s">
+      <c r="J144" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K144" s="24" t="s">
+      <c r="K144" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M144" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N144" s="32" t="s">
+      <c r="L144" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M144" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N144" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O144" s="30" t="s">
-        <v>61</v>
+      <c r="O144" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D145" s="24">
         <v>202</v>
@@ -33443,13 +33570,13 @@
         <v>7</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L145" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N145" s="32" t="s">
         <v>57</v>
@@ -33458,15 +33585,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D146" s="24">
         <v>202</v>
@@ -33477,7 +33604,7 @@
       <c r="F146" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="24">
+      <c r="G146" s="44">
         <v>403</v>
       </c>
       <c r="H146" s="65" t="s">
@@ -33493,10 +33620,10 @@
         <v>32</v>
       </c>
       <c r="L146" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>57</v>
@@ -33507,13 +33634,13 @@
     </row>
     <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="D147" s="24">
         <v>202</v>
@@ -33539,11 +33666,11 @@
       <c r="K147" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L147" s="65">
-        <v>5001</v>
+      <c r="L147" s="25">
+        <v>1008</v>
       </c>
       <c r="M147" s="32" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="N147" s="32" t="s">
         <v>57</v>
@@ -33552,15 +33679,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D148" s="24">
         <v>202</v>
@@ -33571,7 +33698,7 @@
       <c r="F148" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G148" s="44">
+      <c r="G148" s="24">
         <v>403</v>
       </c>
       <c r="H148" s="65" t="s">
@@ -33584,42 +33711,42 @@
         <v>7</v>
       </c>
       <c r="K148" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L148" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L148" s="65">
+        <v>5001</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="N148" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O148" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D149" s="4">
-        <v>203</v>
-      </c>
-      <c r="E149" s="4" t="s">
+      <c r="C149" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="24">
+        <v>202</v>
+      </c>
+      <c r="E149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="24">
-        <v>400</v>
+      <c r="G149" s="44">
+        <v>403</v>
       </c>
       <c r="H149" s="65" t="s">
         <v>218</v>
@@ -33627,34 +33754,34 @@
       <c r="I149" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L149" s="20">
-        <v>5005</v>
-      </c>
-      <c r="M149" s="30" t="s">
-        <v>180</v>
+      <c r="K149" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L149" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M149" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N149" s="32" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O149" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="26">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>112</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="57" t="s">
-        <v>197</v>
+      <c r="C150" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D150" s="4">
         <v>203</v>
@@ -33674,19 +33801,19 @@
       <c r="I150" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J150" s="58" t="s">
+      <c r="J150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="26">
-        <v>3003</v>
-      </c>
-      <c r="M150" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="N150" s="33" t="s">
+      <c r="L150" s="20">
+        <v>5005</v>
+      </c>
+      <c r="M150" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N150" s="32" t="s">
         <v>216</v>
       </c>
       <c r="O150" s="30" t="s">
@@ -33695,16 +33822,16 @@
     </row>
     <row r="151" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A151" s="26">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D151" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>142</v>
@@ -33728,30 +33855,30 @@
         <v>11</v>
       </c>
       <c r="L151" s="26">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M151" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O151" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>130</v>
+      <c r="O151" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="26">
+        <v>131</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D152" s="4">
+        <v>204</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>142</v>
@@ -33775,30 +33902,30 @@
         <v>11</v>
       </c>
       <c r="L152" s="26">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M152" s="57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O152" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D153" s="4">
         <v>203</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>142</v>
@@ -33822,30 +33949,30 @@
         <v>11</v>
       </c>
       <c r="L153" s="26">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M153" s="57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N153" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O153" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
-        <v>129</v>
+      <c r="O153" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>128</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C154" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>12</v>
+      <c r="C154" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" s="4">
+        <v>203</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>142</v>
@@ -33853,8 +33980,8 @@
       <c r="F154" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G154" s="65">
-        <v>404</v>
+      <c r="G154" s="24">
+        <v>400</v>
       </c>
       <c r="H154" s="65" t="s">
         <v>218</v>
@@ -33868,11 +33995,11 @@
       <c r="K154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L154" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M154" s="67" t="s">
-        <v>207</v>
+      <c r="L154" s="26">
+        <v>3006</v>
+      </c>
+      <c r="M154" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="N154" s="33" t="s">
         <v>216</v>
@@ -33882,21 +34009,51 @@
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="34"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="21"/>
+      <c r="A155" s="26">
+        <v>129</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G155" s="65">
+        <v>404</v>
+      </c>
+      <c r="H155" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J155" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L155" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M155" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N155" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O155" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
@@ -33910,6 +34067,7 @@
       <c r="I156" s="45"/>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
       <c r="M156" s="34"/>
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
@@ -33926,7 +34084,6 @@
       <c r="I157" s="45"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
       <c r="M157" s="34"/>
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
@@ -34198,6 +34355,7 @@
       <c r="I173" s="45"/>
       <c r="J173" s="20"/>
       <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
       <c r="M173" s="34"/>
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
@@ -34214,7 +34372,6 @@
       <c r="I174" s="45"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
       <c r="M174" s="34"/>
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
@@ -39098,34 +39255,51 @@
       <c r="N461" s="21"/>
       <c r="O461" s="21"/>
     </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A462" s="20"/>
+      <c r="B462" s="21"/>
+      <c r="C462" s="22"/>
+      <c r="D462" s="20"/>
+      <c r="E462" s="20"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="45"/>
+      <c r="H462" s="45"/>
+      <c r="I462" s="45"/>
+      <c r="J462" s="20"/>
+      <c r="K462" s="20"/>
+      <c r="L462" s="20"/>
+      <c r="M462" s="34"/>
+      <c r="N462" s="21"/>
+      <c r="O462" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G461"/>
+  <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A136:O136"/>
     <mergeCell ref="A137:O137"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A138:O138"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A89:O89"/>
     <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A75:O75"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J130:J135 J51:J58 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J118:J120 J141:J142 J10:J16 J144:J154 J122:J128 J111:J112 J28:J49 J25 J19:J20 J97:J109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K130:K132 K69:K73 K83:K87 K135 K7:K8 K66:K67 K80:K81 K93:K95 K118:K120 K141:K142 K10:K16 K97:K109 K144:K154 K122:K128 K111:K112 K25:K49 K19:K20 K51:K58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K133 K70:K74 K84:K88 K136 K7:K8 K67:K68 K81:K82 K94:K96 K119:K121 K142:K143 K10:K16 K98:K110 K145:K155 K123:K129 K112:K113 K25:K49 K19:K20 K51:K60" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L69:L73 L10:L14 L83:L87 L112 L135 L51:L55 L148:L149 L144:L146 L7:L8 L66:L67 L80:L81 L93:L95 L118:L120 L141:L142 L16 L39:L48 L97:L102 L122:L124 L126:L128 L28 L30:L37 L25 L19:L20 L132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L70:L74 L10:L14 L84:L88 L113 L136 L51:L55 L149:L150 L145:L147 L7:L8 L67:L68 L81:L82 L94:L96 L119:L121 L142:L143 L16 L39:L48 L98:L103 L123:L125 L127:L129 L28 L30:L37 L25 L19:L20 L133" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -39137,8 +39311,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="59" max="16383" man="1"/>
-    <brk id="87" max="9" man="1"/>
+    <brk id="60" max="16383" man="1"/>
+    <brk id="88" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE2B5-8E09-40FC-B031-AB4978167F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFA3F7-177E-4B9A-85D1-93A53AE61D84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22240,8 +22240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22916,9 +22916,9 @@
   </sheetPr>
   <dimension ref="A1:BN462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26684,7 +26684,7 @@
     </row>
     <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>100</v>

--- a/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT4/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ADC654-3387-45E7-A51A-C54E4C887E34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DF28A-D084-437F-ACD7-8D80F7BBCF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18300" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="21084" windowHeight="11371" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="297">
   <si>
     <t>Payslip</t>
   </si>
@@ -788,9 +788,6 @@
     <t xml:space="preserve">If Eircode is included it must be a eight character alpha-numeric code.  </t>
   </si>
   <si>
-    <t>Invalid Eircode format.   Eircode must be a eight character alpha-numeric code.</t>
-  </si>
-  <si>
     <t>Eircode rule</t>
   </si>
   <si>
@@ -990,6 +987,12 @@
   </si>
   <si>
     <t>Payroll Submission contains J9 payslip with a pay date either before 12/03/2020 or after 31/08/2020.</t>
+  </si>
+  <si>
+    <t>Invalid Eircode format.   Eircode must be a seven or eight character alpha-numeric code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 8 alpha numeric characters to 7 or 8 alpha numeric characters </t>
   </si>
 </sst>
 </file>
@@ -1671,8 +1674,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8277225" y="47625"/>
-          <a:ext cx="1819275" cy="923925"/>
+          <a:off x="8420742" y="47625"/>
+          <a:ext cx="1819275" cy="895684"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -22279,21 +22282,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="12"/>
+    <col min="2" max="2" width="13.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="12" customWidth="1"/>
     <col min="5" max="5" width="92" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="12" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="12"/>
-    <col min="12" max="13" width="9.140625" style="13"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="6" max="6" width="21.875" style="12" customWidth="1"/>
+    <col min="7" max="11" width="9.125" style="12"/>
+    <col min="12" max="13" width="9.125" style="13"/>
+    <col min="14" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -22310,7 +22313,7 @@
       <c r="D9" s="102"/>
       <c r="E9" s="102"/>
     </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
@@ -22329,7 +22332,7 @@
       <c r="K11" s="13"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B12" s="29">
         <v>0.1</v>
       </c>
@@ -22346,7 +22349,7 @@
       <c r="K12" s="13"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B13" s="70" t="s">
         <v>154</v>
       </c>
@@ -22365,7 +22368,7 @@
       <c r="K13" s="13"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="75.099999999999994" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
         <v>157</v>
@@ -22382,7 +22385,7 @@
       <c r="K14" s="13"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="15">
         <v>100</v>
@@ -22399,7 +22402,7 @@
       <c r="K15" s="13"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="15">
         <v>29</v>
@@ -22416,7 +22419,7 @@
       <c r="K16" s="13"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="15">
         <v>47</v>
@@ -22433,7 +22436,7 @@
       <c r="K17" s="13"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>173</v>
       </c>
@@ -22467,7 +22470,7 @@
       <c r="K19" s="13"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
@@ -22482,7 +22485,7 @@
       <c r="K20" s="13"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="15">
         <v>126</v>
@@ -22499,7 +22502,7 @@
       <c r="K21" s="13"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="15">
         <v>127</v>
@@ -22516,7 +22519,7 @@
       <c r="K22" s="13"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
         <v>201</v>
@@ -22533,7 +22536,7 @@
       <c r="K23" s="13"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="15">
         <v>21</v>
@@ -22544,7 +22547,7 @@
       <c r="K24" s="13"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="15">
         <v>9</v>
@@ -22555,7 +22558,7 @@
       <c r="K25" s="13"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="15">
         <v>129</v>
@@ -22566,7 +22569,7 @@
       <c r="K26" s="13"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="15">
         <v>134</v>
@@ -22577,7 +22580,7 @@
       <c r="K27" s="13"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="15" t="s">
         <v>217</v>
@@ -22588,7 +22591,7 @@
       <c r="K28" s="13"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="15">
         <v>125</v>
@@ -22599,7 +22602,7 @@
       <c r="K29" s="13"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="15">
         <v>140</v>
@@ -22610,7 +22613,7 @@
       <c r="K30" s="13"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="68" t="s">
         <v>226</v>
@@ -22632,7 +22635,7 @@
       <c r="K32" s="13"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
       <c r="C33" s="81" t="s">
         <v>141</v>
@@ -22641,7 +22644,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B34" s="79"/>
       <c r="C34" s="79">
         <v>118</v>
@@ -22650,7 +22653,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B35" s="79"/>
       <c r="C35" s="79">
         <v>127</v>
@@ -22659,7 +22662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B36" s="79"/>
       <c r="C36" s="79">
         <v>141</v>
@@ -22686,16 +22689,16 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
       <c r="C39" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="83" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B40" s="79"/>
       <c r="C40" s="79">
         <v>142</v>
@@ -22704,16 +22707,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B41" s="79"/>
       <c r="C41" s="79">
         <v>51</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B42" s="79"/>
       <c r="C42" s="91">
         <v>143144145</v>
@@ -22722,7 +22725,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B43" s="79"/>
       <c r="C43" s="79">
         <v>146</v>
@@ -22731,25 +22734,25 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B44" s="79"/>
       <c r="C44" s="79">
         <v>97</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B45" s="79"/>
       <c r="C45" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="80" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B46" s="79"/>
       <c r="C46" s="79">
         <v>147</v>
@@ -22758,16 +22761,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B47" s="79"/>
       <c r="C47" s="79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47" s="80" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B48" s="95"/>
       <c r="C48" s="95">
         <v>10</v>
@@ -22776,7 +22779,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B49" s="79"/>
       <c r="C49" s="79">
         <v>148</v>
@@ -22785,7 +22788,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B50" s="79"/>
       <c r="C50" s="79">
         <v>149</v>
@@ -22794,7 +22797,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B51" s="79"/>
       <c r="C51" s="79">
         <v>150</v>
@@ -22803,70 +22806,70 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B52" s="79"/>
       <c r="C52" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B53" s="79"/>
       <c r="C53" s="79">
         <v>149</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B54" s="79"/>
       <c r="C54" s="79">
         <v>141</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B55" s="79"/>
       <c r="C55" s="79">
         <v>82</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B57" s="79"/>
       <c r="C57" s="79">
         <v>55</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B58" s="79"/>
       <c r="C58" s="79">
         <v>10</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B59" s="79"/>
       <c r="C59" s="79">
         <v>151</v>
@@ -22875,16 +22878,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B60" s="79"/>
       <c r="C60" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B61" s="79"/>
       <c r="C61" s="79">
         <v>147</v>
@@ -22893,7 +22896,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B62" s="79"/>
       <c r="C62" s="79">
         <v>154</v>
@@ -22902,7 +22905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B63" s="79"/>
       <c r="C63" s="79">
         <v>155</v>
@@ -22911,16 +22914,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B64" s="79"/>
       <c r="C64" s="79">
         <v>112</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B65" s="79"/>
       <c r="C65" s="79">
         <v>156</v>
@@ -22929,7 +22932,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B66" s="79"/>
       <c r="C66" s="79">
         <v>157</v>
@@ -22941,33 +22944,37 @@
     <row r="67" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="79"/>
       <c r="C67" s="82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="101" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="B68" s="79"/>
+      <c r="C68" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B69" s="100"/>
       <c r="C69" s="100"/>
       <c r="D69" s="13"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B70" s="100"/>
       <c r="C70" s="100"/>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B71" s="100"/>
       <c r="C71" s="100"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B72" s="100"/>
       <c r="C72" s="100"/>
       <c r="D72" s="13"/>
@@ -22989,29 +22996,29 @@
   </sheetPr>
   <dimension ref="A1:BN469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.3" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.25" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.75" style="48" customWidth="1"/>
     <col min="14" max="14" width="28" style="11" customWidth="1"/>
     <col min="15" max="15" width="30" style="11" customWidth="1"/>
-    <col min="16" max="66" width="9.140625" style="22"/>
-    <col min="67" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="66" width="9.125" style="22"/>
+    <col min="67" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" ht="48.9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
@@ -23109,7 +23116,7 @@
       <c r="BM1" s="20"/>
       <c r="BN1" s="20"/>
     </row>
-    <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>74</v>
       </c>
@@ -23179,7 +23186,7 @@
       <c r="BM2" s="21"/>
       <c r="BN2" s="21"/>
     </row>
-    <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>148</v>
       </c>
@@ -23249,7 +23256,7 @@
       <c r="BM3" s="21"/>
       <c r="BN3" s="21"/>
     </row>
-    <row r="4" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <v>146</v>
       </c>
@@ -23257,7 +23264,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>12</v>
@@ -23287,7 +23294,7 @@
         <v>1016</v>
       </c>
       <c r="M4" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="93" t="s">
         <v>57</v>
@@ -23347,7 +23354,7 @@
       <c r="BM4" s="21"/>
       <c r="BN4" s="21"/>
     </row>
-    <row r="5" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -23445,7 +23452,7 @@
       <c r="BM5" s="21"/>
       <c r="BN5" s="21"/>
     </row>
-    <row r="6" spans="1:66" s="11" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="11" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -23543,7 +23550,7 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
     </row>
-    <row r="7" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -23551,7 +23558,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
@@ -23590,7 +23597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -23637,7 +23644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>116</v>
       </c>
@@ -23684,7 +23691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -23731,7 +23738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -23778,7 +23785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -23825,7 +23832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -23872,7 +23879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="66.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" ht="66.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -23880,7 +23887,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -23910,7 +23917,7 @@
         <v>2001</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>63</v>
@@ -23919,7 +23926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:66" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="31.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100</v>
       </c>
@@ -23966,7 +23973,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
         <v>12</v>
       </c>
@@ -24013,7 +24020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:66" s="35" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="35" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="58">
         <v>123</v>
       </c>
@@ -24060,7 +24067,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:66" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="58">
         <v>124</v>
       </c>
@@ -24107,7 +24114,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -24154,7 +24161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>142</v>
       </c>
@@ -24162,7 +24169,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -24180,12 +24187,12 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="98">
         <v>158</v>
       </c>
@@ -24193,7 +24200,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="98" t="s">
@@ -24221,12 +24228,12 @@
         <v>2055</v>
       </c>
       <c r="M21" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N21" s="71"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>162</v>
       </c>
@@ -24234,7 +24241,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>12</v>
@@ -24252,7 +24259,7 @@
         <v>219</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J22" s="92" t="s">
         <v>144</v>
@@ -24264,7 +24271,7 @@
         <v>2059</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N22" s="32" t="s">
         <v>63</v>
@@ -24273,7 +24280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>164</v>
       </c>
@@ -24281,7 +24288,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>12</v>
@@ -24311,7 +24318,7 @@
         <v>2054</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N23" s="32" t="s">
         <v>63</v>
@@ -24320,7 +24327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="104" t="s">
         <v>147</v>
       </c>
@@ -24390,7 +24397,7 @@
       <c r="BM24" s="21"/>
       <c r="BN24" s="21"/>
     </row>
-    <row r="25" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>152</v>
       </c>
@@ -24398,7 +24405,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
@@ -24428,13 +24435,13 @@
         <v>1017</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N25" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -24488,7 +24495,7 @@
       <c r="BM25" s="21"/>
       <c r="BN25" s="21"/>
     </row>
-    <row r="26" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>153</v>
       </c>
@@ -24496,7 +24503,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
@@ -24526,13 +24533,13 @@
         <v>1018</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N26" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O26" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -24586,7 +24593,7 @@
       <c r="BM26" s="21"/>
       <c r="BN26" s="21"/>
     </row>
-    <row r="27" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>126</v>
       </c>
@@ -24633,7 +24640,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>19</v>
       </c>
@@ -24680,7 +24687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="11" customFormat="1" ht="48.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92">
         <v>150</v>
       </c>
@@ -24688,7 +24695,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="92" t="s">
         <v>12</v>
@@ -24706,7 +24713,7 @@
         <v>219</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J29" s="92" t="s">
         <v>7</v>
@@ -24718,13 +24725,13 @@
         <v>2021</v>
       </c>
       <c r="M29" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N29" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -24778,7 +24785,7 @@
       <c r="BM29" s="21"/>
       <c r="BN29" s="21"/>
     </row>
-    <row r="30" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="11" customFormat="1" ht="48.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <v>149</v>
       </c>
@@ -24786,7 +24793,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D30" s="92" t="s">
         <v>12</v>
@@ -24804,7 +24811,7 @@
         <v>219</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J30" s="92" t="s">
         <v>7</v>
@@ -24816,7 +24823,7 @@
         <v>2024</v>
       </c>
       <c r="M30" s="93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N30" s="52" t="s">
         <v>0</v>
@@ -24876,7 +24883,7 @@
       <c r="BM30" s="21"/>
       <c r="BN30" s="21"/>
     </row>
-    <row r="31" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>97</v>
       </c>
@@ -24902,7 +24909,7 @@
         <v>219</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>7</v>
@@ -24923,7 +24930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>143</v>
       </c>
@@ -24931,7 +24938,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>12</v>
@@ -24961,13 +24968,13 @@
         <v>2050</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N32" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O32" s="85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -25021,7 +25028,7 @@
       <c r="BM32" s="35"/>
       <c r="BN32" s="35"/>
     </row>
-    <row r="33" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>144</v>
       </c>
@@ -25029,7 +25036,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>12</v>
@@ -25059,13 +25066,13 @@
         <v>2051</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N33" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
@@ -25119,7 +25126,7 @@
       <c r="BM33" s="35"/>
       <c r="BN33" s="35"/>
     </row>
-    <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>20</v>
       </c>
@@ -25166,7 +25173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>22</v>
       </c>
@@ -25213,7 +25220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>23</v>
       </c>
@@ -25260,7 +25267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>25</v>
       </c>
@@ -25298,7 +25305,7 @@
         <v>2014</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>0</v>
@@ -25307,7 +25314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" ht="35.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -25354,7 +25361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:66" s="73" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="73" customFormat="1" ht="53" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <v>27</v>
       </c>
@@ -25401,7 +25408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>31</v>
       </c>
@@ -25448,7 +25455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>134</v>
       </c>
@@ -25495,7 +25502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>32</v>
       </c>
@@ -25542,7 +25549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="36" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>33</v>
       </c>
@@ -25640,7 +25647,7 @@
       <c r="BM43" s="35"/>
       <c r="BN43" s="35"/>
     </row>
-    <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>35</v>
       </c>
@@ -25687,7 +25694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:66" s="36" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" s="36" customFormat="1" ht="161.35" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>36</v>
       </c>
@@ -25785,7 +25792,7 @@
       <c r="BM45" s="35"/>
       <c r="BN45" s="35"/>
     </row>
-    <row r="46" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>37</v>
       </c>
@@ -25883,7 +25890,7 @@
       <c r="BM46" s="22"/>
       <c r="BN46" s="22"/>
     </row>
-    <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>38</v>
       </c>
@@ -25930,7 +25937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>39</v>
       </c>
@@ -25977,7 +25984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>40</v>
       </c>
@@ -26024,7 +26031,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41</v>
       </c>
@@ -26071,7 +26078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>42</v>
       </c>
@@ -26118,7 +26125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="58">
         <v>43</v>
       </c>
@@ -26165,7 +26172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" s="36" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>44</v>
       </c>
@@ -26263,7 +26270,7 @@
       <c r="BM53" s="35"/>
       <c r="BN53" s="35"/>
     </row>
-    <row r="54" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>45</v>
       </c>
@@ -26310,7 +26317,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>46</v>
       </c>
@@ -26357,7 +26364,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>47</v>
       </c>
@@ -26404,7 +26411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>48</v>
       </c>
@@ -26451,7 +26458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:66" s="73" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="73" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="58">
         <v>49</v>
       </c>
@@ -26498,7 +26505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>50</v>
       </c>
@@ -26596,7 +26603,7 @@
       <c r="BM59" s="22"/>
       <c r="BN59" s="22"/>
     </row>
-    <row r="60" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>51</v>
       </c>
@@ -26604,7 +26611,7 @@
         <v>100</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D60" s="4">
         <v>8</v>
@@ -26634,7 +26641,7 @@
         <v>2045</v>
       </c>
       <c r="M60" s="90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N60" s="30" t="s">
         <v>0</v>
@@ -26694,7 +26701,7 @@
       <c r="BM60" s="22"/>
       <c r="BN60" s="22"/>
     </row>
-    <row r="61" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>122</v>
       </c>
@@ -26792,7 +26799,7 @@
       <c r="BM61" s="22"/>
       <c r="BN61" s="22"/>
     </row>
-    <row r="62" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>155</v>
       </c>
@@ -26800,7 +26807,7 @@
         <v>100</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D62" s="4">
         <v>16</v>
@@ -26818,7 +26825,7 @@
         <v>219</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>144</v>
@@ -26830,13 +26837,13 @@
         <v>2052</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N62" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O62" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
@@ -26890,7 +26897,7 @@
       <c r="BM62" s="22"/>
       <c r="BN62" s="22"/>
     </row>
-    <row r="63" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="7" customFormat="1" ht="228.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>157</v>
       </c>
@@ -26898,7 +26905,7 @@
         <v>100</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D63" s="4">
         <v>55</v>
@@ -26916,7 +26923,7 @@
         <v>219</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J63" s="58" t="s">
         <v>7</v>
@@ -26928,13 +26935,13 @@
         <v>2053</v>
       </c>
       <c r="M63" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N63" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O63" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P63" s="22"/>
       <c r="Q63" s="22"/>
@@ -26988,7 +26995,7 @@
       <c r="BM63" s="22"/>
       <c r="BN63" s="22"/>
     </row>
-    <row r="64" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>159</v>
       </c>
@@ -26996,7 +27003,7 @@
         <v>100</v>
       </c>
       <c r="C64" s="99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>12</v>
@@ -27014,7 +27021,7 @@
         <v>219</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>144</v>
@@ -27026,7 +27033,7 @@
         <v>2056</v>
       </c>
       <c r="M64" s="99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N64" s="30" t="s">
         <v>0</v>
@@ -27086,7 +27093,7 @@
       <c r="BM64" s="22"/>
       <c r="BN64" s="22"/>
     </row>
-    <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>160</v>
       </c>
@@ -27094,7 +27101,7 @@
         <v>100</v>
       </c>
       <c r="C65" s="99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>12</v>
@@ -27112,7 +27119,7 @@
         <v>219</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>144</v>
@@ -27124,7 +27131,7 @@
         <v>2057</v>
       </c>
       <c r="M65" s="99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N65" s="30" t="s">
         <v>0</v>
@@ -27184,7 +27191,7 @@
       <c r="BM65" s="22"/>
       <c r="BN65" s="22"/>
     </row>
-    <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>161</v>
       </c>
@@ -27192,7 +27199,7 @@
         <v>100</v>
       </c>
       <c r="C66" s="99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>12</v>
@@ -27210,7 +27217,7 @@
         <v>219</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>144</v>
@@ -27222,7 +27229,7 @@
         <v>2058</v>
       </c>
       <c r="M66" s="99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N66" s="30" t="s">
         <v>0</v>
@@ -27282,7 +27289,7 @@
       <c r="BM66" s="22"/>
       <c r="BN66" s="22"/>
     </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>163</v>
       </c>
@@ -27290,7 +27297,7 @@
         <v>100</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>12</v>
@@ -27308,7 +27315,7 @@
         <v>219</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>144</v>
@@ -27320,7 +27327,7 @@
         <v>2060</v>
       </c>
       <c r="M67" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N67" s="30" t="s">
         <v>0</v>
@@ -27380,7 +27387,7 @@
       <c r="BM67" s="22"/>
       <c r="BN67" s="22"/>
     </row>
-    <row r="68" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="105" t="s">
         <v>44</v>
       </c>
@@ -27450,7 +27457,7 @@
       <c r="BM68" s="21"/>
       <c r="BN68" s="21"/>
     </row>
-    <row r="69" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="104" t="s">
         <v>148</v>
       </c>
@@ -27520,7 +27527,7 @@
       <c r="BM69" s="21"/>
       <c r="BN69" s="21"/>
     </row>
-    <row r="70" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="92">
         <v>148</v>
       </c>
@@ -27528,7 +27535,7 @@
         <v>101</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D70" s="92" t="s">
         <v>12</v>
@@ -27558,7 +27565,7 @@
         <v>1111</v>
       </c>
       <c r="M70" s="93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N70" s="30" t="s">
         <v>62</v>
@@ -27618,7 +27625,7 @@
       <c r="BM70" s="21"/>
       <c r="BN70" s="21"/>
     </row>
-    <row r="71" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="92">
         <v>146</v>
       </c>
@@ -27626,7 +27633,7 @@
         <v>101</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" s="92" t="s">
         <v>12</v>
@@ -27656,7 +27663,7 @@
         <v>1016</v>
       </c>
       <c r="M71" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N71" s="93" t="s">
         <v>57</v>
@@ -27716,7 +27723,7 @@
       <c r="BM71" s="21"/>
       <c r="BN71" s="21"/>
     </row>
-    <row r="72" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>52</v>
       </c>
@@ -27814,7 +27821,7 @@
       <c r="BM72" s="21"/>
       <c r="BN72" s="21"/>
     </row>
-    <row r="73" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>53</v>
       </c>
@@ -27912,7 +27919,7 @@
       <c r="BM73" s="21"/>
       <c r="BN73" s="21"/>
     </row>
-    <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>55</v>
       </c>
@@ -27920,7 +27927,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
@@ -28010,7 +28017,7 @@
       <c r="BM74" s="22"/>
       <c r="BN74" s="22"/>
     </row>
-    <row r="75" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>56</v>
       </c>
@@ -28108,7 +28115,7 @@
       <c r="BM75" s="22"/>
       <c r="BN75" s="22"/>
     </row>
-    <row r="76" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>117</v>
       </c>
@@ -28155,7 +28162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>57</v>
       </c>
@@ -28253,7 +28260,7 @@
       <c r="BM77" s="22"/>
       <c r="BN77" s="22"/>
     </row>
-    <row r="78" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>58</v>
       </c>
@@ -28351,7 +28358,7 @@
       <c r="BM78" s="22"/>
       <c r="BN78" s="22"/>
     </row>
-    <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>59</v>
       </c>
@@ -28449,7 +28456,7 @@
       <c r="BM79" s="22"/>
       <c r="BN79" s="22"/>
     </row>
-    <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>60</v>
       </c>
@@ -28547,7 +28554,7 @@
       <c r="BM80" s="22"/>
       <c r="BN80" s="22"/>
     </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>61</v>
       </c>
@@ -28645,7 +28652,7 @@
       <c r="BM81" s="22"/>
       <c r="BN81" s="22"/>
     </row>
-    <row r="82" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="103" t="s">
         <v>43</v>
       </c>
@@ -28715,7 +28722,7 @@
       <c r="BM82" s="21"/>
       <c r="BN82" s="21"/>
     </row>
-    <row r="83" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="104" t="s">
         <v>148</v>
       </c>
@@ -28785,7 +28792,7 @@
       <c r="BM83" s="21"/>
       <c r="BN83" s="21"/>
     </row>
-    <row r="84" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="92">
         <v>148</v>
       </c>
@@ -28793,7 +28800,7 @@
         <v>102</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" s="92" t="s">
         <v>12</v>
@@ -28823,7 +28830,7 @@
         <v>1111</v>
       </c>
       <c r="M84" s="93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>62</v>
@@ -28883,7 +28890,7 @@
       <c r="BM84" s="21"/>
       <c r="BN84" s="21"/>
     </row>
-    <row r="85" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="92">
         <v>146</v>
       </c>
@@ -28891,7 +28898,7 @@
         <v>102</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="92" t="s">
         <v>12</v>
@@ -28921,7 +28928,7 @@
         <v>1016</v>
       </c>
       <c r="M85" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N85" s="93" t="s">
         <v>57</v>
@@ -28981,7 +28988,7 @@
       <c r="BM85" s="21"/>
       <c r="BN85" s="21"/>
     </row>
-    <row r="86" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>62</v>
       </c>
@@ -29079,7 +29086,7 @@
       <c r="BM86" s="21"/>
       <c r="BN86" s="21"/>
     </row>
-    <row r="87" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>63</v>
       </c>
@@ -29177,7 +29184,7 @@
       <c r="BM87" s="21"/>
       <c r="BN87" s="21"/>
     </row>
-    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>65</v>
       </c>
@@ -29185,7 +29192,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
@@ -29275,7 +29282,7 @@
       <c r="BM88" s="22"/>
       <c r="BN88" s="22"/>
     </row>
-    <row r="89" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>66</v>
       </c>
@@ -29373,7 +29380,7 @@
       <c r="BM89" s="22"/>
       <c r="BN89" s="22"/>
     </row>
-    <row r="90" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>118</v>
       </c>
@@ -29420,7 +29427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>67</v>
       </c>
@@ -29518,7 +29525,7 @@
       <c r="BM91" s="22"/>
       <c r="BN91" s="22"/>
     </row>
-    <row r="92" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>68</v>
       </c>
@@ -29616,7 +29623,7 @@
       <c r="BM92" s="22"/>
       <c r="BN92" s="22"/>
     </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>69</v>
       </c>
@@ -29714,7 +29721,7 @@
       <c r="BM93" s="22"/>
       <c r="BN93" s="22"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>70</v>
       </c>
@@ -29812,7 +29819,7 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>71</v>
       </c>
@@ -29910,7 +29917,7 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="103" t="s">
         <v>131</v>
       </c>
@@ -29980,7 +29987,7 @@
       <c r="BM96" s="21"/>
       <c r="BN96" s="21"/>
     </row>
-    <row r="97" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="104" t="s">
         <v>148</v>
       </c>
@@ -30050,7 +30057,7 @@
       <c r="BM97" s="21"/>
       <c r="BN97" s="21"/>
     </row>
-    <row r="98" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="92">
         <v>146</v>
       </c>
@@ -30058,7 +30065,7 @@
         <v>132</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="92" t="s">
         <v>12</v>
@@ -30088,7 +30095,7 @@
         <v>1016</v>
       </c>
       <c r="M98" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N98" s="93" t="s">
         <v>57</v>
@@ -30148,7 +30155,7 @@
       <c r="BM98" s="21"/>
       <c r="BN98" s="21"/>
     </row>
-    <row r="99" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>72</v>
       </c>
@@ -30246,7 +30253,7 @@
       <c r="BM99" s="21"/>
       <c r="BN99" s="21"/>
     </row>
-    <row r="100" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>73</v>
       </c>
@@ -30344,7 +30351,7 @@
       <c r="BM100" s="21"/>
       <c r="BN100" s="21"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>75</v>
       </c>
@@ -30352,7 +30359,7 @@
         <v>132</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -30442,7 +30449,7 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>76</v>
       </c>
@@ -30540,7 +30547,7 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>77</v>
       </c>
@@ -30638,7 +30645,7 @@
       <c r="BM103" s="22"/>
       <c r="BN103" s="22"/>
     </row>
-    <row r="104" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>119</v>
       </c>
@@ -30685,7 +30692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>78</v>
       </c>
@@ -30783,7 +30790,7 @@
       <c r="BM105" s="22"/>
       <c r="BN105" s="22"/>
     </row>
-    <row r="106" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>79</v>
       </c>
@@ -30881,7 +30888,7 @@
       <c r="BM106" s="22"/>
       <c r="BN106" s="22"/>
     </row>
-    <row r="107" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>80</v>
       </c>
@@ -30979,7 +30986,7 @@
       <c r="BM107" s="22"/>
       <c r="BN107" s="22"/>
     </row>
-    <row r="108" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>81</v>
       </c>
@@ -31077,7 +31084,7 @@
       <c r="BM108" s="22"/>
       <c r="BN108" s="22"/>
     </row>
-    <row r="109" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>82</v>
       </c>
@@ -31175,7 +31182,7 @@
       <c r="BM109" s="22"/>
       <c r="BN109" s="22"/>
     </row>
-    <row r="110" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>83</v>
       </c>
@@ -31273,7 +31280,7 @@
       <c r="BM110" s="22"/>
       <c r="BN110" s="22"/>
     </row>
-    <row r="111" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="26">
         <v>137</v>
       </c>
@@ -31371,7 +31378,7 @@
       <c r="BM111" s="22"/>
       <c r="BN111" s="22"/>
     </row>
-    <row r="112" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>138</v>
       </c>
@@ -31469,7 +31476,7 @@
       <c r="BM112" s="21"/>
       <c r="BN112" s="21"/>
     </row>
-    <row r="113" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>139</v>
       </c>
@@ -31567,7 +31574,7 @@
       <c r="BM113" s="21"/>
       <c r="BN113" s="21"/>
     </row>
-    <row r="114" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>140</v>
       </c>
@@ -31665,7 +31672,7 @@
       <c r="BM114" s="21"/>
       <c r="BN114" s="21"/>
     </row>
-    <row r="115" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="26">
         <v>141</v>
       </c>
@@ -31763,7 +31770,7 @@
       <c r="BM115" s="21"/>
       <c r="BN115" s="21"/>
     </row>
-    <row r="116" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" s="50" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="58">
         <v>84</v>
       </c>
@@ -31861,7 +31868,7 @@
       <c r="BM116" s="21"/>
       <c r="BN116" s="21"/>
     </row>
-    <row r="117" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" s="50" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="58">
         <v>156</v>
       </c>
@@ -31869,7 +31876,7 @@
         <v>132</v>
       </c>
       <c r="C117" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D117" s="58" t="s">
         <v>12</v>
@@ -31899,13 +31906,13 @@
         <v>3014</v>
       </c>
       <c r="M117" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N117" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O117" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P117" s="21"/>
       <c r="Q117" s="21"/>
@@ -32029,7 +32036,7 @@
       <c r="BM118" s="21"/>
       <c r="BN118" s="21"/>
     </row>
-    <row r="119" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>145</v>
       </c>
@@ -32037,7 +32044,7 @@
         <v>132</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D119" s="38" t="s">
         <v>12</v>
@@ -32067,13 +32074,13 @@
         <v>3008</v>
       </c>
       <c r="M119" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N119" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O119" s="87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P119" s="35"/>
       <c r="Q119" s="35"/>
@@ -32127,7 +32134,7 @@
       <c r="BM119" s="35"/>
       <c r="BN119" s="35"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>85</v>
       </c>
@@ -32225,7 +32232,7 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" ht="19.05" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="103" t="s">
         <v>134</v>
       </c>
@@ -32295,7 +32302,7 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="104" t="s">
         <v>148</v>
       </c>
@@ -32365,7 +32372,7 @@
       <c r="BM122" s="22"/>
       <c r="BN122" s="22"/>
     </row>
-    <row r="123" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="92">
         <v>146</v>
       </c>
@@ -32373,7 +32380,7 @@
         <v>135</v>
       </c>
       <c r="C123" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D123" s="92" t="s">
         <v>12</v>
@@ -32403,7 +32410,7 @@
         <v>1016</v>
       </c>
       <c r="M123" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N123" s="93" t="s">
         <v>57</v>
@@ -32463,7 +32470,7 @@
       <c r="BM123" s="21"/>
       <c r="BN123" s="21"/>
     </row>
-    <row r="124" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>86</v>
       </c>
@@ -32510,7 +32517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>87</v>
       </c>
@@ -32608,7 +32615,7 @@
       <c r="BM125" s="22"/>
       <c r="BN125" s="22"/>
     </row>
-    <row r="126" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>89</v>
       </c>
@@ -32616,7 +32623,7 @@
         <v>135</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>12</v>
@@ -32706,7 +32713,7 @@
       <c r="BM126" s="22"/>
       <c r="BN126" s="22"/>
     </row>
-    <row r="127" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>90</v>
       </c>
@@ -32804,7 +32811,7 @@
       <c r="BM127" s="22"/>
       <c r="BN127" s="22"/>
     </row>
-    <row r="128" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>91</v>
       </c>
@@ -32902,7 +32909,7 @@
       <c r="BM128" s="22"/>
       <c r="BN128" s="22"/>
     </row>
-    <row r="129" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:66" s="7" customFormat="1" ht="33.799999999999997" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>120</v>
       </c>
@@ -33000,7 +33007,7 @@
       <c r="BM129" s="22"/>
       <c r="BN129" s="22"/>
     </row>
-    <row r="130" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>92</v>
       </c>
@@ -33098,7 +33105,7 @@
       <c r="BM130" s="21"/>
       <c r="BN130" s="21"/>
     </row>
-    <row r="131" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>93</v>
       </c>
@@ -33145,7 +33152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>94</v>
       </c>
@@ -33192,7 +33199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
         <v>141</v>
       </c>
@@ -33290,7 +33297,7 @@
       <c r="BM133" s="21"/>
       <c r="BN133" s="21"/>
     </row>
-    <row r="134" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>95</v>
       </c>
@@ -33337,7 +33344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>96</v>
       </c>
@@ -33435,7 +33442,7 @@
       <c r="BM135" s="22"/>
       <c r="BN135" s="22"/>
     </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>142</v>
       </c>
@@ -33443,7 +33450,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -33461,12 +33468,12 @@
       <c r="K136" s="26"/>
       <c r="L136" s="26"/>
       <c r="M136" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N136" s="33"/>
       <c r="O136" s="33"/>
     </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A137" s="104" t="s">
         <v>147</v>
       </c>
@@ -33485,7 +33492,7 @@
       <c r="N137" s="104"/>
       <c r="O137" s="104"/>
     </row>
-    <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>154</v>
       </c>
@@ -33493,7 +33500,7 @@
         <v>135</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>12</v>
@@ -33523,16 +33530,16 @@
         <v>4006</v>
       </c>
       <c r="M138" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O138" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>151</v>
       </c>
@@ -33540,7 +33547,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>12</v>
@@ -33570,16 +33577,16 @@
         <v>4005</v>
       </c>
       <c r="M139" s="96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O139" s="96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>97</v>
       </c>
@@ -33626,7 +33633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>98</v>
       </c>
@@ -33673,7 +33680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>115</v>
       </c>
@@ -33720,7 +33727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>99</v>
       </c>
@@ -33767,7 +33774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="19.05" x14ac:dyDescent="0.3">
       <c r="A144" s="103" t="s">
         <v>175</v>
       </c>
@@ -33786,7 +33793,7 @@
       <c r="N144" s="103"/>
       <c r="O144" s="103"/>
     </row>
-    <row r="145" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="104" t="s">
         <v>148</v>
       </c>
@@ -33805,7 +33812,7 @@
       <c r="N145" s="104"/>
       <c r="O145" s="104"/>
     </row>
-    <row r="146" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="92">
         <v>146</v>
       </c>
@@ -33813,7 +33820,7 @@
         <v>176</v>
       </c>
       <c r="C146" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D146" s="92" t="s">
         <v>12</v>
@@ -33843,7 +33850,7 @@
         <v>1016</v>
       </c>
       <c r="M146" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N146" s="93" t="s">
         <v>57</v>
@@ -33903,7 +33910,7 @@
       <c r="BM146" s="21"/>
       <c r="BN146" s="21"/>
     </row>
-    <row r="147" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>102</v>
       </c>
@@ -33950,7 +33957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>103</v>
       </c>
@@ -33997,7 +34004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>105</v>
       </c>
@@ -34005,7 +34012,7 @@
         <v>176</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D149" s="24">
         <v>201</v>
@@ -34044,7 +34051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>106</v>
       </c>
@@ -34091,7 +34098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>121</v>
       </c>
@@ -34138,7 +34145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>107</v>
       </c>
@@ -34185,7 +34192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>108</v>
       </c>
@@ -34232,7 +34239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>109</v>
       </c>
@@ -34279,7 +34286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>110</v>
       </c>
@@ -34326,7 +34333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>111</v>
       </c>
@@ -34373,7 +34380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>112</v>
       </c>
@@ -34420,7 +34427,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" ht="47.55" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>132</v>
       </c>
@@ -34467,7 +34474,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" ht="47.55" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>131</v>
       </c>
@@ -34514,7 +34521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:66" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" ht="63.2" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>130</v>
       </c>
@@ -34561,7 +34568,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="31.95" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>128</v>
       </c>
@@ -34608,7 +34615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>129</v>
       </c>
@@ -34655,7 +34662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -34672,7 +34679,7 @@
       <c r="N163" s="21"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -34688,7 +34695,7 @@
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -34705,7 +34712,7 @@
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -34722,7 +34729,7 @@
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -34739,7 +34746,7 @@
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -34756,7 +34763,7 @@
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -34773,7 +34780,7 @@
       <c r="N169" s="21"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -34790,7 +34797,7 @@
       <c r="N170" s="21"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -34807,7 +34814,7 @@
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -34824,7 +34831,7 @@
       <c r="N172" s="21"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -34841,7 +34848,7 @@
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -34858,7 +34865,7 @@
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -34875,7 +34882,7 @@
       <c r="N175" s="21"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -34892,7 +34899,7 @@
       <c r="N176" s="21"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -34909,7 +34916,7 @@
       <c r="N177" s="21"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -34926,7 +34933,7 @@
       <c r="N178" s="21"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -34943,7 +34950,7 @@
       <c r="N179" s="21"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="22"/>
@@ -34960,7 +34967,7 @@
       <c r="N180" s="21"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="22"/>
@@ -34976,7 +34983,7 @@
       <c r="N181" s="21"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="22"/>
@@ -34993,7 +35000,7 @@
       <c r="N182" s="21"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="B183" s="21"/>
       <c r="C183" s="22"/>
@@ -35010,7 +35017,7 @@
       <c r="N183" s="21"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="22"/>
@@ -35027,7 +35034,7 @@
       <c r="N184" s="21"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="21"/>
       <c r="C185" s="22"/>
@@ -35044,7 +35051,7 @@
       <c r="N185" s="21"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="22"/>
@@ -35061,7 +35068,7 @@
       <c r="N186" s="21"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="22"/>
@@ -35078,7 +35085,7 @@
       <c r="N187" s="21"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="22"/>
@@ -35095,7 +35102,7 @@
       <c r="N188" s="21"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="21"/>
       <c r="C189" s="22"/>
@@ -35112,7 +35119,7 @@
       <c r="N189" s="21"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="21"/>
       <c r="C190" s="22"/>
@@ -35129,7 +35136,7 @@
       <c r="N190" s="21"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="B191" s="21"/>
       <c r="C191" s="22"/>
@@ -35146,7 +35153,7 @@
       <c r="N191" s="21"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="21"/>
       <c r="C192" s="22"/>
@@ -35163,7 +35170,7 @@
       <c r="N192" s="21"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="21"/>
       <c r="C193" s="22"/>
@@ -35180,7 +35187,7 @@
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="21"/>
       <c r="C194" s="22"/>
@@ -35197,7 +35204,7 @@
       <c r="N194" s="21"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="21"/>
       <c r="C195" s="22"/>
@@ -35214,7 +35221,7 @@
       <c r="N195" s="21"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="21"/>
       <c r="C196" s="22"/>
@@ -35231,7 +35238,7 @@
       <c r="N196" s="21"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="B197" s="21"/>
       <c r="C197" s="22"/>
@@ -35248,7 +35255,7 @@
       <c r="N197" s="21"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="21"/>
       <c r="C198" s="22"/>
@@ -35265,7 +35272,7 @@
       <c r="N198" s="21"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="21"/>
       <c r="C199" s="22"/>
@@ -35282,7 +35289,7 @@
       <c r="N199" s="21"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="21"/>
       <c r="C200" s="22"/>
@@ -35299,7 +35306,7 @@
       <c r="N200" s="21"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="21"/>
       <c r="C201" s="22"/>
@@ -35316,7 +35323,7 @@
       <c r="N201" s="21"/>
       <c r="O201" s="21"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="21"/>
       <c r="C202" s="22"/>
@@ -35333,7 +35340,7 @@
       <c r="N202" s="21"/>
       <c r="O202" s="21"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="21"/>
       <c r="C203" s="22"/>
@@ -35350,7 +35357,7 @@
       <c r="N203" s="21"/>
       <c r="O203" s="21"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="21"/>
       <c r="C204" s="22"/>
@@ -35367,7 +35374,7 @@
       <c r="N204" s="21"/>
       <c r="O204" s="21"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="21"/>
       <c r="C205" s="22"/>
@@ -35384,7 +35391,7 @@
       <c r="N205" s="21"/>
       <c r="O205" s="21"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="21"/>
       <c r="C206" s="22"/>
@@ -35401,7 +35408,7 @@
       <c r="N206" s="21"/>
       <c r="O206" s="21"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="B207" s="21"/>
       <c r="C207" s="22"/>
@@ -35418,7 +35425,7 @@
       <c r="N207" s="21"/>
       <c r="O207" s="21"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="21"/>
       <c r="C208" s="22"/>
@@ -35435,7 +35442,7 @@
       <c r="N208" s="21"/>
       <c r="O208" s="21"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="21"/>
       <c r="C209" s="22"/>
@@ -35452,7 +35459,7 @@
       <c r="N209" s="21"/>
       <c r="O209" s="21"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="21"/>
       <c r="C210" s="22"/>
@@ -35469,7 +35476,7 @@
       <c r="N210" s="21"/>
       <c r="O210" s="21"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="21"/>
       <c r="C211" s="22"/>
@@ -35486,7 +35493,7 @@
       <c r="N211" s="21"/>
       <c r="O211" s="21"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="21"/>
       <c r="C212" s="22"/>
@@ -35503,7 +35510,7 @@
       <c r="N212" s="21"/>
       <c r="O212" s="21"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="21"/>
       <c r="C213" s="22"/>
@@ -35520,7 +35527,7 @@
       <c r="N213" s="21"/>
       <c r="O213" s="21"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="21"/>
       <c r="C214" s="22"/>
@@ -35537,7 +35544,7 @@
       <c r="N214" s="21"/>
       <c r="O214" s="21"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="21"/>
       <c r="C215" s="22"/>
@@ -35554,7 +35561,7 @@
       <c r="N215" s="21"/>
       <c r="O215" s="21"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="21"/>
       <c r="C216" s="22"/>
@@ -35571,7 +35578,7 @@
       <c r="N216" s="21"/>
       <c r="O216" s="21"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="B217" s="21"/>
       <c r="C217" s="22"/>
@@ -35588,7 +35595,7 @@
       <c r="N217" s="21"/>
       <c r="O217" s="21"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="21"/>
       <c r="C218" s="22"/>
@@ -35605,7 +35612,7 @@
       <c r="N218" s="21"/>
       <c r="O218" s="21"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="21"/>
       <c r="C219" s="22"/>
@@ -35622,7 +35629,7 @@
       <c r="N219" s="21"/>
       <c r="O219" s="21"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="C220" s="22"/>
@@ -35639,7 +35646,7 @@
       <c r="N220" s="21"/>
       <c r="O220" s="21"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="21"/>
       <c r="C221" s="22"/>
@@ -35656,7 +35663,7 @@
       <c r="N221" s="21"/>
       <c r="O221" s="21"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
       <c r="C222" s="22"/>
@@ -35673,7 +35680,7 @@
       <c r="N222" s="21"/>
       <c r="O222" s="21"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
       <c r="C223" s="22"/>
@@ -35690,7 +35697,7 @@
       <c r="N223" s="21"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
       <c r="C224" s="22"/>
@@ -35707,7 +35714,7 @@
       <c r="N224" s="21"/>
       <c r="O224" s="21"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
       <c r="C225" s="22"/>
@@ -35724,7 +35731,7 @@
       <c r="N225" s="21"/>
       <c r="O225" s="21"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
       <c r="C226" s="22"/>
@@ -35741,7 +35748,7 @@
       <c r="N226" s="21"/>
       <c r="O226" s="21"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
       <c r="C227" s="22"/>
@@ -35758,7 +35765,7 @@
       <c r="N227" s="21"/>
       <c r="O227" s="21"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
       <c r="C228" s="22"/>
@@ -35775,7 +35782,7 @@
       <c r="N228" s="21"/>
       <c r="O228" s="21"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
       <c r="C229" s="22"/>
@@ -35792,7 +35799,7 @@
       <c r="N229" s="21"/>
       <c r="O229" s="21"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22"/>
@@ -35809,7 +35816,7 @@
       <c r="N230" s="21"/>
       <c r="O230" s="21"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22"/>
@@ -35826,7 +35833,7 @@
       <c r="N231" s="21"/>
       <c r="O231" s="21"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22"/>
@@ -35843,7 +35850,7 @@
       <c r="N232" s="21"/>
       <c r="O232" s="21"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22"/>
@@ -35860,7 +35867,7 @@
       <c r="N233" s="21"/>
       <c r="O233" s="21"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22"/>
@@ -35877,7 +35884,7 @@
       <c r="N234" s="21"/>
       <c r="O234" s="21"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22"/>
@@ -35894,7 +35901,7 @@
       <c r="N235" s="21"/>
       <c r="O235" s="21"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22"/>
@@ -35911,7 +35918,7 @@
       <c r="N236" s="21"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="22"/>
@@ -35928,7 +35935,7 @@
       <c r="N237" s="21"/>
       <c r="O237" s="21"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22"/>
@@ -35945,7 +35952,7 @@
       <c r="N238" s="21"/>
       <c r="O238" s="21"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
@@ -35962,7 +35969,7 @@
       <c r="N239" s="21"/>
       <c r="O239" s="21"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="22"/>
@@ -35979,7 +35986,7 @@
       <c r="N240" s="21"/>
       <c r="O240" s="21"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="22"/>
@@ -35996,7 +36003,7 @@
       <c r="N241" s="21"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="22"/>
@@ -36013,7 +36020,7 @@
       <c r="N242" s="21"/>
       <c r="O242" s="21"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="22"/>
@@ -36030,7 +36037,7 @@
       <c r="N243" s="21"/>
       <c r="O243" s="21"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="22"/>
@@ -36047,7 +36054,7 @@
       <c r="N244" s="21"/>
       <c r="O244" s="21"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="22"/>
@@ -36064,7 +36071,7 @@
       <c r="N245" s="21"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="22"/>
@@ -36081,7 +36088,7 @@
       <c r="N246" s="21"/>
       <c r="O246" s="21"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="22"/>
@@ -36098,7 +36105,7 @@
       <c r="N247" s="21"/>
       <c r="O247" s="21"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="21"/>
       <c r="C248" s="22"/>
@@ -36115,7 +36122,7 @@
       <c r="N248" s="21"/>
       <c r="O248" s="21"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="21"/>
       <c r="C249" s="22"/>
@@ -36132,7 +36139,7 @@
       <c r="N249" s="21"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="21"/>
       <c r="C250" s="22"/>
@@ -36149,7 +36156,7 @@
       <c r="N250" s="21"/>
       <c r="O250" s="21"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="B251" s="21"/>
       <c r="C251" s="22"/>
@@ -36166,7 +36173,7 @@
       <c r="N251" s="21"/>
       <c r="O251" s="21"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
       <c r="C252" s="22"/>
@@ -36183,7 +36190,7 @@
       <c r="N252" s="21"/>
       <c r="O252" s="21"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
       <c r="C253" s="22"/>
@@ -36200,7 +36207,7 @@
       <c r="N253" s="21"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
       <c r="C254" s="22"/>
@@ -36217,7 +36224,7 @@
       <c r="N254" s="21"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
       <c r="C255" s="22"/>
@@ -36234,7 +36241,7 @@
       <c r="N255" s="21"/>
       <c r="O255" s="21"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="21"/>
       <c r="C256" s="22"/>
@@ -36251,7 +36258,7 @@
       <c r="N256" s="21"/>
       <c r="O256" s="21"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
       <c r="C257" s="22"/>
@@ -36268,7 +36275,7 @@
       <c r="N257" s="21"/>
       <c r="O257" s="21"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
       <c r="C258" s="22"/>
@@ -36285,7 +36292,7 @@
       <c r="N258" s="21"/>
       <c r="O258" s="21"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
       <c r="C259" s="22"/>
@@ -36302,7 +36309,7 @@
       <c r="N259" s="21"/>
       <c r="O259" s="21"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="20"/>
       <c r="B260" s="21"/>
       <c r="C260" s="22"/>
@@ -36319,7 +36326,7 @@
       <c r="N260" s="21"/>
       <c r="O260" s="21"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="21"/>
       <c r="C261" s="22"/>
@@ -36336,7 +36343,7 @@
       <c r="N261" s="21"/>
       <c r="O261" s="21"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="21"/>
       <c r="C262" s="22"/>
@@ -36353,7 +36360,7 @@
       <c r="N262" s="21"/>
       <c r="O262" s="21"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="21"/>
       <c r="C263" s="22"/>
@@ -36370,7 +36377,7 @@
       <c r="N263" s="21"/>
       <c r="O263" s="21"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="21"/>
       <c r="C264" s="22"/>
@@ -36387,7 +36394,7 @@
       <c r="N264" s="21"/>
       <c r="O264" s="21"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="21"/>
       <c r="C265" s="22"/>
@@ -36404,7 +36411,7 @@
       <c r="N265" s="21"/>
       <c r="O265" s="21"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="21"/>
       <c r="C266" s="22"/>
@@ -36421,7 +36428,7 @@
       <c r="N266" s="21"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="21"/>
       <c r="C267" s="22"/>
@@ -36438,7 +36445,7 @@
       <c r="N267" s="21"/>
       <c r="O267" s="21"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="21"/>
       <c r="C268" s="22"/>
@@ -36455,7 +36462,7 @@
       <c r="N268" s="21"/>
       <c r="O268" s="21"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="21"/>
       <c r="C269" s="22"/>
@@ -36472,7 +36479,7 @@
       <c r="N269" s="21"/>
       <c r="O269" s="21"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="21"/>
       <c r="C270" s="22"/>
@@ -36489,7 +36496,7 @@
       <c r="N270" s="21"/>
       <c r="O270" s="21"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="21"/>
       <c r="C271" s="22"/>
@@ -36506,7 +36513,7 @@
       <c r="N271" s="21"/>
       <c r="O271" s="21"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="21"/>
       <c r="C272" s="22"/>
@@ -36523,7 +36530,7 @@
       <c r="N272" s="21"/>
       <c r="O272" s="21"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="21"/>
       <c r="C273" s="22"/>
@@ -36540,7 +36547,7 @@
       <c r="N273" s="21"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="20"/>
       <c r="B274" s="21"/>
       <c r="C274" s="22"/>
@@ -36557,7 +36564,7 @@
       <c r="N274" s="21"/>
       <c r="O274" s="21"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="21"/>
       <c r="C275" s="22"/>
@@ -36574,7 +36581,7 @@
       <c r="N275" s="21"/>
       <c r="O275" s="21"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="21"/>
       <c r="C276" s="22"/>
@@ -36591,7 +36598,7 @@
       <c r="N276" s="21"/>
       <c r="O276" s="21"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="21"/>
       <c r="C277" s="22"/>
@@ -36608,7 +36615,7 @@
       <c r="N277" s="21"/>
       <c r="O277" s="21"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="21"/>
       <c r="C278" s="22"/>
@@ -36625,7 +36632,7 @@
       <c r="N278" s="21"/>
       <c r="O278" s="21"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="21"/>
       <c r="C279" s="22"/>
@@ -36642,7 +36649,7 @@
       <c r="N279" s="21"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="21"/>
       <c r="C280" s="22"/>
@@ -36659,7 +36666,7 @@
       <c r="N280" s="21"/>
       <c r="O280" s="21"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="21"/>
       <c r="C281" s="22"/>
@@ -36676,7 +36683,7 @@
       <c r="N281" s="21"/>
       <c r="O281" s="21"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="21"/>
       <c r="C282" s="22"/>
@@ -36693,7 +36700,7 @@
       <c r="N282" s="21"/>
       <c r="O282" s="21"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="21"/>
       <c r="C283" s="22"/>
@@ -36710,7 +36717,7 @@
       <c r="N283" s="21"/>
       <c r="O283" s="21"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="21"/>
       <c r="C284" s="22"/>
@@ -36727,7 +36734,7 @@
       <c r="N284" s="21"/>
       <c r="O284" s="21"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="21"/>
       <c r="C285" s="22"/>
@@ -36744,7 +36751,7 @@
       <c r="N285" s="21"/>
       <c r="O285" s="21"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="21"/>
       <c r="C286" s="22"/>
@@ -36761,7 +36768,7 @@
       <c r="N286" s="21"/>
       <c r="O286" s="21"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="21"/>
       <c r="C287" s="22"/>
@@ -36778,7 +36785,7 @@
       <c r="N287" s="21"/>
       <c r="O287" s="21"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="21"/>
       <c r="C288" s="22"/>
@@ -36795,7 +36802,7 @@
       <c r="N288" s="21"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="21"/>
       <c r="C289" s="22"/>
@@ -36812,7 +36819,7 @@
       <c r="N289" s="21"/>
       <c r="O289" s="21"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="21"/>
       <c r="C290" s="22"/>
@@ -36829,7 +36836,7 @@
       <c r="N290" s="21"/>
       <c r="O290" s="21"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="21"/>
       <c r="C291" s="22"/>
@@ -36846,7 +36853,7 @@
       <c r="N291" s="21"/>
       <c r="O291" s="21"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="21"/>
       <c r="C292" s="22"/>
@@ -36863,7 +36870,7 @@
       <c r="N292" s="21"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="21"/>
       <c r="C293" s="22"/>
@@ -36880,7 +36887,7 @@
       <c r="N293" s="21"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="21"/>
       <c r="C294" s="22"/>
@@ -36897,7 +36904,7 @@
       <c r="N294" s="21"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="21"/>
       <c r="C295" s="22"/>
@@ -36914,7 +36921,7 @@
       <c r="N295" s="21"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="20"/>
       <c r="B296" s="21"/>
       <c r="C296" s="22"/>
@@ -36931,7 +36938,7 @@
       <c r="N296" s="21"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="21"/>
       <c r="C297" s="22"/>
@@ -36948,7 +36955,7 @@
       <c r="N297" s="21"/>
       <c r="O297" s="21"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="20"/>
       <c r="B298" s="21"/>
       <c r="C298" s="22"/>
@@ -36965,7 +36972,7 @@
       <c r="N298" s="21"/>
       <c r="O298" s="21"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="21"/>
       <c r="C299" s="22"/>
@@ -36982,7 +36989,7 @@
       <c r="N299" s="21"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="21"/>
       <c r="C300" s="22"/>
@@ -36999,7 +37006,7 @@
       <c r="N300" s="21"/>
       <c r="O300" s="21"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="21"/>
       <c r="C301" s="22"/>
@@ -37016,7 +37023,7 @@
       <c r="N301" s="21"/>
       <c r="O301" s="21"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="21"/>
       <c r="C302" s="22"/>
@@ -37033,7 +37040,7 @@
       <c r="N302" s="21"/>
       <c r="O302" s="21"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="21"/>
       <c r="C303" s="22"/>
@@ -37050,7 +37057,7 @@
       <c r="N303" s="21"/>
       <c r="O303" s="21"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="21"/>
       <c r="C304" s="22"/>
@@ -37067,7 +37074,7 @@
       <c r="N304" s="21"/>
       <c r="O304" s="21"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="21"/>
       <c r="C305" s="22"/>
@@ -37084,7 +37091,7 @@
       <c r="N305" s="21"/>
       <c r="O305" s="21"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="21"/>
       <c r="C306" s="22"/>
@@ -37101,7 +37108,7 @@
       <c r="N306" s="21"/>
       <c r="O306" s="21"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="21"/>
       <c r="C307" s="22"/>
@@ -37118,7 +37125,7 @@
       <c r="N307" s="21"/>
       <c r="O307" s="21"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="20"/>
       <c r="B308" s="21"/>
       <c r="C308" s="22"/>
@@ -37135,7 +37142,7 @@
       <c r="N308" s="21"/>
       <c r="O308" s="21"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="21"/>
       <c r="C309" s="22"/>
@@ -37152,7 +37159,7 @@
       <c r="N309" s="21"/>
       <c r="O309" s="21"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="21"/>
       <c r="C310" s="22"/>
@@ -37169,7 +37176,7 @@
       <c r="N310" s="21"/>
       <c r="O310" s="21"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="21"/>
       <c r="C311" s="22"/>
@@ -37186,7 +37193,7 @@
       <c r="N311" s="21"/>
       <c r="O311" s="21"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="21"/>
       <c r="C312" s="22"/>
@@ -37203,7 +37210,7 @@
       <c r="N312" s="21"/>
       <c r="O312" s="21"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="20"/>
       <c r="B313" s="21"/>
       <c r="C313" s="22"/>
@@ -37220,7 +37227,7 @@
       <c r="N313" s="21"/>
       <c r="O313" s="21"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="21"/>
       <c r="C314" s="22"/>
@@ -37237,7 +37244,7 @@
       <c r="N314" s="21"/>
       <c r="O314" s="21"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="21"/>
       <c r="C315" s="22"/>
@@ -37254,7 +37261,7 @@
       <c r="N315" s="21"/>
       <c r="O315" s="21"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="21"/>
       <c r="C316" s="22"/>
@@ -37271,7 +37278,7 @@
       <c r="N316" s="21"/>
       <c r="O316" s="21"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="20"/>
       <c r="B317" s="21"/>
       <c r="C317" s="22"/>
@@ -37288,7 +37295,7 @@
       <c r="N317" s="21"/>
       <c r="O317" s="21"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="21"/>
       <c r="C318" s="22"/>
@@ -37305,7 +37312,7 @@
       <c r="N318" s="21"/>
       <c r="O318" s="21"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="21"/>
       <c r="C319" s="22"/>
@@ -37322,7 +37329,7 @@
       <c r="N319" s="21"/>
       <c r="O319" s="21"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="21"/>
       <c r="C320" s="22"/>
@@ -37339,7 +37346,7 @@
       <c r="N320" s="21"/>
       <c r="O320" s="21"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="21"/>
       <c r="C321" s="22"/>
@@ -37356,7 +37363,7 @@
       <c r="N321" s="21"/>
       <c r="O321" s="21"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="21"/>
       <c r="C322" s="22"/>
@@ -37373,7 +37380,7 @@
       <c r="N322" s="21"/>
       <c r="O322" s="21"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="21"/>
       <c r="C323" s="22"/>
@@ -37390,7 +37397,7 @@
       <c r="N323" s="21"/>
       <c r="O323" s="21"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="20"/>
       <c r="B324" s="21"/>
       <c r="C324" s="22"/>
@@ -37407,7 +37414,7 @@
       <c r="N324" s="21"/>
       <c r="O324" s="21"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="20"/>
       <c r="B325" s="21"/>
       <c r="C325" s="22"/>
@@ -37424,7 +37431,7 @@
       <c r="N325" s="21"/>
       <c r="O325" s="21"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="21"/>
       <c r="C326" s="22"/>
@@ -37441,7 +37448,7 @@
       <c r="N326" s="21"/>
       <c r="O326" s="21"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="21"/>
       <c r="C327" s="22"/>
@@ -37458,7 +37465,7 @@
       <c r="N327" s="21"/>
       <c r="O327" s="21"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="B328" s="21"/>
       <c r="C328" s="22"/>
@@ -37475,7 +37482,7 @@
       <c r="N328" s="21"/>
       <c r="O328" s="21"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="20"/>
       <c r="B329" s="21"/>
       <c r="C329" s="22"/>
@@ -37492,7 +37499,7 @@
       <c r="N329" s="21"/>
       <c r="O329" s="21"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="20"/>
       <c r="B330" s="21"/>
       <c r="C330" s="22"/>
@@ -37509,7 +37516,7 @@
       <c r="N330" s="21"/>
       <c r="O330" s="21"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="20"/>
       <c r="B331" s="21"/>
       <c r="C331" s="22"/>
@@ -37526,7 +37533,7 @@
       <c r="N331" s="21"/>
       <c r="O331" s="21"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="20"/>
       <c r="B332" s="21"/>
       <c r="C332" s="22"/>
@@ -37543,7 +37550,7 @@
       <c r="N332" s="21"/>
       <c r="O332" s="21"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="20"/>
       <c r="B333" s="21"/>
       <c r="C333" s="22"/>
@@ -37560,7 +37567,7 @@
       <c r="N333" s="21"/>
       <c r="O333" s="21"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="20"/>
       <c r="B334" s="21"/>
       <c r="C334" s="22"/>
@@ -37577,7 +37584,7 @@
       <c r="N334" s="21"/>
       <c r="O334" s="21"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="B335" s="21"/>
       <c r="C335" s="22"/>
@@ -37594,7 +37601,7 @@
       <c r="N335" s="21"/>
       <c r="O335" s="21"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="B336" s="21"/>
       <c r="C336" s="22"/>
@@ -37611,7 +37618,7 @@
       <c r="N336" s="21"/>
       <c r="O336" s="21"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="20"/>
       <c r="B337" s="21"/>
       <c r="C337" s="22"/>
@@ -37628,7 +37635,7 @@
       <c r="N337" s="21"/>
       <c r="O337" s="21"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="20"/>
       <c r="B338" s="21"/>
       <c r="C338" s="22"/>
@@ -37645,7 +37652,7 @@
       <c r="N338" s="21"/>
       <c r="O338" s="21"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="22"/>
@@ -37662,7 +37669,7 @@
       <c r="N339" s="21"/>
       <c r="O339" s="21"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="20"/>
       <c r="B340" s="21"/>
       <c r="C340" s="22"/>
@@ -37679,7 +37686,7 @@
       <c r="N340" s="21"/>
       <c r="O340" s="21"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="20"/>
       <c r="B341" s="21"/>
       <c r="C341" s="22"/>
@@ -37696,7 +37703,7 @@
       <c r="N341" s="21"/>
       <c r="O341" s="21"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="20"/>
       <c r="B342" s="21"/>
       <c r="C342" s="22"/>
@@ -37713,7 +37720,7 @@
       <c r="N342" s="21"/>
       <c r="O342" s="21"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="B343" s="21"/>
       <c r="C343" s="22"/>
@@ -37730,7 +37737,7 @@
       <c r="N343" s="21"/>
       <c r="O343" s="21"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="B344" s="21"/>
       <c r="C344" s="22"/>
@@ -37747,7 +37754,7 @@
       <c r="N344" s="21"/>
       <c r="O344" s="21"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="21"/>
       <c r="C345" s="22"/>
@@ -37764,7 +37771,7 @@
       <c r="N345" s="21"/>
       <c r="O345" s="21"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="20"/>
       <c r="B346" s="21"/>
       <c r="C346" s="22"/>
@@ -37781,7 +37788,7 @@
       <c r="N346" s="21"/>
       <c r="O346" s="21"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="20"/>
       <c r="B347" s="21"/>
       <c r="C347" s="22"/>
@@ -37798,7 +37805,7 @@
       <c r="N347" s="21"/>
       <c r="O347" s="21"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="20"/>
       <c r="B348" s="21"/>
       <c r="C348" s="22"/>
@@ -37815,7 +37822,7 @@
       <c r="N348" s="21"/>
       <c r="O348" s="21"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
       <c r="B349" s="21"/>
       <c r="C349" s="22"/>
@@ -37832,7 +37839,7 @@
       <c r="N349" s="21"/>
       <c r="O349" s="21"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="20"/>
       <c r="B350" s="21"/>
       <c r="C350" s="22"/>
@@ -37849,7 +37856,7 @@
       <c r="N350" s="21"/>
       <c r="O350" s="21"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="21"/>
       <c r="C351" s="22"/>
@@ -37866,7 +37873,7 @@
       <c r="N351" s="21"/>
       <c r="O351" s="21"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="B352" s="21"/>
       <c r="C352" s="22"/>
@@ -37883,7 +37890,7 @@
       <c r="N352" s="21"/>
       <c r="O352" s="21"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="22"/>
@@ -37900,7 +37907,7 @@
       <c r="N353" s="21"/>
       <c r="O353" s="21"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="20"/>
       <c r="B354" s="21"/>
       <c r="C354" s="22"/>
@@ -37917,7 +37924,7 @@
       <c r="N354" s="21"/>
       <c r="O354" s="21"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
       <c r="B355" s="21"/>
       <c r="C355" s="22"/>
@@ -37934,7 +37941,7 @@
       <c r="N355" s="21"/>
       <c r="O355" s="21"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
       <c r="B356" s="21"/>
       <c r="C356" s="22"/>
@@ -37951,7 +37958,7 @@
       <c r="N356" s="21"/>
       <c r="O356" s="21"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="20"/>
       <c r="B357" s="21"/>
       <c r="C357" s="22"/>
@@ -37968,7 +37975,7 @@
       <c r="N357" s="21"/>
       <c r="O357" s="21"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="20"/>
       <c r="B358" s="21"/>
       <c r="C358" s="22"/>
@@ -37985,7 +37992,7 @@
       <c r="N358" s="21"/>
       <c r="O358" s="21"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="B359" s="21"/>
       <c r="C359" s="22"/>
@@ -38002,7 +38009,7 @@
       <c r="N359" s="21"/>
       <c r="O359" s="21"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="B360" s="21"/>
       <c r="C360" s="22"/>
@@ -38019,7 +38026,7 @@
       <c r="N360" s="21"/>
       <c r="O360" s="21"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="20"/>
       <c r="B361" s="21"/>
       <c r="C361" s="22"/>
@@ -38036,7 +38043,7 @@
       <c r="N361" s="21"/>
       <c r="O361" s="21"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="B362" s="21"/>
       <c r="C362" s="22"/>
@@ -38053,7 +38060,7 @@
       <c r="N362" s="21"/>
       <c r="O362" s="21"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="20"/>
       <c r="B363" s="21"/>
       <c r="C363" s="22"/>
@@ -38070,7 +38077,7 @@
       <c r="N363" s="21"/>
       <c r="O363" s="21"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="20"/>
       <c r="B364" s="21"/>
       <c r="C364" s="22"/>
@@ -38087,7 +38094,7 @@
       <c r="N364" s="21"/>
       <c r="O364" s="21"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="20"/>
       <c r="B365" s="21"/>
       <c r="C365" s="22"/>
@@ -38104,7 +38111,7 @@
       <c r="N365" s="21"/>
       <c r="O365" s="21"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="20"/>
       <c r="B366" s="21"/>
       <c r="C366" s="22"/>
@@ -38121,7 +38128,7 @@
       <c r="N366" s="21"/>
       <c r="O366" s="21"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="B367" s="21"/>
       <c r="C367" s="22"/>
@@ -38138,7 +38145,7 @@
       <c r="N367" s="21"/>
       <c r="O367" s="21"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="B368" s="21"/>
       <c r="C368" s="22"/>
@@ -38155,7 +38162,7 @@
       <c r="N368" s="21"/>
       <c r="O368" s="21"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="20"/>
       <c r="B369" s="21"/>
       <c r="C369" s="22"/>
@@ -38172,7 +38179,7 @@
       <c r="N369" s="21"/>
       <c r="O369" s="21"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="20"/>
       <c r="B370" s="21"/>
       <c r="C370" s="22"/>
@@ -38189,7 +38196,7 @@
       <c r="N370" s="21"/>
       <c r="O370" s="21"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="20"/>
       <c r="B371" s="21"/>
       <c r="C371" s="22"/>
@@ -38206,7 +38213,7 @@
       <c r="N371" s="21"/>
       <c r="O371" s="21"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
       <c r="B372" s="21"/>
       <c r="C372" s="22"/>
@@ -38223,7 +38230,7 @@
       <c r="N372" s="21"/>
       <c r="O372" s="21"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="B373" s="21"/>
       <c r="C373" s="22"/>
@@ -38240,7 +38247,7 @@
       <c r="N373" s="21"/>
       <c r="O373" s="21"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="20"/>
       <c r="B374" s="21"/>
       <c r="C374" s="22"/>
@@ -38257,7 +38264,7 @@
       <c r="N374" s="21"/>
       <c r="O374" s="21"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="B375" s="21"/>
       <c r="C375" s="22"/>
@@ -38274,7 +38281,7 @@
       <c r="N375" s="21"/>
       <c r="O375" s="21"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="B376" s="21"/>
       <c r="C376" s="22"/>
@@ -38291,7 +38298,7 @@
       <c r="N376" s="21"/>
       <c r="O376" s="21"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="20"/>
       <c r="B377" s="21"/>
       <c r="C377" s="22"/>
@@ -38308,7 +38315,7 @@
       <c r="N377" s="21"/>
       <c r="O377" s="21"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="B378" s="21"/>
       <c r="C378" s="22"/>
@@ -38325,7 +38332,7 @@
       <c r="N378" s="21"/>
       <c r="O378" s="21"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
       <c r="B379" s="21"/>
       <c r="C379" s="22"/>
@@ -38342,7 +38349,7 @@
       <c r="N379" s="21"/>
       <c r="O379" s="21"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="20"/>
       <c r="B380" s="21"/>
       <c r="C380" s="22"/>
@@ -38359,7 +38366,7 @@
       <c r="N380" s="21"/>
       <c r="O380" s="21"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="20"/>
       <c r="B381" s="21"/>
       <c r="C381" s="22"/>
@@ -38376,7 +38383,7 @@
       <c r="N381" s="21"/>
       <c r="O381" s="21"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="20"/>
       <c r="B382" s="21"/>
       <c r="C382" s="22"/>
@@ -38393,7 +38400,7 @@
       <c r="N382" s="21"/>
       <c r="O382" s="21"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="B383" s="21"/>
       <c r="C383" s="22"/>
@@ -38410,7 +38417,7 @@
       <c r="N383" s="21"/>
       <c r="O383" s="21"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="B384" s="21"/>
       <c r="C384" s="22"/>
@@ -38427,7 +38434,7 @@
       <c r="N384" s="21"/>
       <c r="O384" s="21"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="20"/>
       <c r="B385" s="21"/>
       <c r="C385" s="22"/>
@@ -38444,7 +38451,7 @@
       <c r="N385" s="21"/>
       <c r="O385" s="21"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="20"/>
       <c r="B386" s="21"/>
       <c r="C386" s="22"/>
@@ -38461,7 +38468,7 @@
       <c r="N386" s="21"/>
       <c r="O386" s="21"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="20"/>
       <c r="B387" s="21"/>
       <c r="C387" s="22"/>
@@ -38478,7 +38485,7 @@
       <c r="N387" s="21"/>
       <c r="O387" s="21"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="20"/>
       <c r="B388" s="21"/>
       <c r="C388" s="22"/>
@@ -38495,7 +38502,7 @@
       <c r="N388" s="21"/>
       <c r="O388" s="21"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="20"/>
       <c r="B389" s="21"/>
       <c r="C389" s="22"/>
@@ -38512,7 +38519,7 @@
       <c r="N389" s="21"/>
       <c r="O389" s="21"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="20"/>
       <c r="B390" s="21"/>
       <c r="C390" s="22"/>
@@ -38529,7 +38536,7 @@
       <c r="N390" s="21"/>
       <c r="O390" s="21"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
       <c r="B391" s="21"/>
       <c r="C391" s="22"/>
@@ -38546,7 +38553,7 @@
       <c r="N391" s="21"/>
       <c r="O391" s="21"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="B392" s="21"/>
       <c r="C392" s="22"/>
@@ -38563,7 +38570,7 @@
       <c r="N392" s="21"/>
       <c r="O392" s="21"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="20"/>
       <c r="B393" s="21"/>
       <c r="C393" s="22"/>
@@ -38580,7 +38587,7 @@
       <c r="N393" s="21"/>
       <c r="O393" s="21"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="20"/>
       <c r="B394" s="21"/>
       <c r="C394" s="22"/>
@@ -38597,7 +38604,7 @@
       <c r="N394" s="21"/>
       <c r="O394" s="21"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="20"/>
       <c r="B395" s="21"/>
       <c r="C395" s="22"/>
@@ -38614,7 +38621,7 @@
       <c r="N395" s="21"/>
       <c r="O395" s="21"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="20"/>
       <c r="B396" s="21"/>
       <c r="C396" s="22"/>
@@ -38631,7 +38638,7 @@
       <c r="N396" s="21"/>
       <c r="O396" s="21"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="20"/>
       <c r="B397" s="21"/>
       <c r="C397" s="22"/>
@@ -38648,7 +38655,7 @@
       <c r="N397" s="21"/>
       <c r="O397" s="21"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="20"/>
       <c r="B398" s="21"/>
       <c r="C398" s="22"/>
@@ -38665,7 +38672,7 @@
       <c r="N398" s="21"/>
       <c r="O398" s="21"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="20"/>
       <c r="B399" s="21"/>
       <c r="C399" s="22"/>
@@ -38682,7 +38689,7 @@
       <c r="N399" s="21"/>
       <c r="O399" s="21"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="20"/>
       <c r="B400" s="21"/>
       <c r="C400" s="22"/>
@@ -38699,7 +38706,7 @@
       <c r="N400" s="21"/>
       <c r="O400" s="21"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="20"/>
       <c r="B401" s="21"/>
       <c r="C401" s="22"/>
@@ -38716,7 +38723,7 @@
       <c r="N401" s="21"/>
       <c r="O401" s="21"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="20"/>
       <c r="B402" s="21"/>
       <c r="C402" s="22"/>
@@ -38733,7 +38740,7 @@
       <c r="N402" s="21"/>
       <c r="O402" s="21"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="20"/>
       <c r="B403" s="21"/>
       <c r="C403" s="22"/>
@@ -38750,7 +38757,7 @@
       <c r="N403" s="21"/>
       <c r="O403" s="21"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="20"/>
       <c r="B404" s="21"/>
       <c r="C404" s="22"/>
@@ -38767,7 +38774,7 @@
       <c r="N404" s="21"/>
       <c r="O404" s="21"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="20"/>
       <c r="B405" s="21"/>
       <c r="C405" s="22"/>
@@ -38784,7 +38791,7 @@
       <c r="N405" s="21"/>
       <c r="O405" s="21"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="20"/>
       <c r="B406" s="21"/>
       <c r="C406" s="22"/>
@@ -38801,7 +38808,7 @@
       <c r="N406" s="21"/>
       <c r="O406" s="21"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
       <c r="B407" s="21"/>
       <c r="C407" s="22"/>
@@ -38818,7 +38825,7 @@
       <c r="N407" s="21"/>
       <c r="O407" s="21"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="20"/>
       <c r="B408" s="21"/>
       <c r="C408" s="22"/>
@@ -38835,7 +38842,7 @@
       <c r="N408" s="21"/>
       <c r="O408" s="21"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="20"/>
       <c r="B409" s="21"/>
       <c r="C409" s="22"/>
@@ -38852,7 +38859,7 @@
       <c r="N409" s="21"/>
       <c r="O409" s="21"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="20"/>
       <c r="B410" s="21"/>
       <c r="C410" s="22"/>
@@ -38869,7 +38876,7 @@
       <c r="N410" s="21"/>
       <c r="O410" s="21"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="20"/>
       <c r="B411" s="21"/>
       <c r="C411" s="22"/>
@@ -38886,7 +38893,7 @@
       <c r="N411" s="21"/>
       <c r="O411" s="21"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
       <c r="B412" s="21"/>
       <c r="C412" s="22"/>
@@ -38903,7 +38910,7 @@
       <c r="N412" s="21"/>
       <c r="O412" s="21"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="20"/>
       <c r="B413" s="21"/>
       <c r="C413" s="22"/>
@@ -38920,7 +38927,7 @@
       <c r="N413" s="21"/>
       <c r="O413" s="21"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="20"/>
       <c r="B414" s="21"/>
       <c r="C414" s="22"/>
@@ -38937,7 +38944,7 @@
       <c r="N414" s="21"/>
       <c r="O414" s="21"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="20"/>
       <c r="B415" s="21"/>
       <c r="C415" s="22"/>
@@ -38954,7 +38961,7 @@
       <c r="N415" s="21"/>
       <c r="O415" s="21"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="20"/>
       <c r="B416" s="21"/>
       <c r="C416" s="22"/>
@@ -38971,7 +38978,7 @@
       <c r="N416" s="21"/>
       <c r="O416" s="21"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="20"/>
       <c r="B417" s="21"/>
       <c r="C417" s="22"/>
@@ -38988,7 +38995,7 @@
       <c r="N417" s="21"/>
       <c r="O417" s="21"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="20"/>
       <c r="B418" s="21"/>
       <c r="C418" s="22"/>
@@ -39005,7 +39012,7 @@
       <c r="N418" s="21"/>
       <c r="O418" s="21"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="20"/>
       <c r="B419" s="21"/>
       <c r="C419" s="22"/>
@@ -39022,7 +39029,7 @@
       <c r="N419" s="21"/>
       <c r="O419" s="21"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="20"/>
       <c r="B420" s="21"/>
       <c r="C420" s="22"/>
@@ -39039,7 +39046,7 @@
       <c r="N420" s="21"/>
       <c r="O420" s="21"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="20"/>
       <c r="B421" s="21"/>
       <c r="C421" s="22"/>
@@ -39056,7 +39063,7 @@
       <c r="N421" s="21"/>
       <c r="O421" s="21"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="20"/>
       <c r="B422" s="21"/>
       <c r="C422" s="22"/>
@@ -39073,7 +39080,7 @@
       <c r="N422" s="21"/>
       <c r="O422" s="21"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="20"/>
       <c r="B423" s="21"/>
       <c r="C423" s="22"/>
@@ -39090,7 +39097,7 @@
       <c r="N423" s="21"/>
       <c r="O423" s="21"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="20"/>
       <c r="B424" s="21"/>
       <c r="C424" s="22"/>
@@ -39107,7 +39114,7 @@
       <c r="N424" s="21"/>
       <c r="O424" s="21"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="20"/>
       <c r="B425" s="21"/>
       <c r="C425" s="22"/>
@@ -39124,7 +39131,7 @@
       <c r="N425" s="21"/>
       <c r="O425" s="21"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="20"/>
       <c r="B426" s="21"/>
       <c r="C426" s="22"/>
@@ -39141,7 +39148,7 @@
       <c r="N426" s="21"/>
       <c r="O426" s="21"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="20"/>
       <c r="B427" s="21"/>
       <c r="C427" s="22"/>
@@ -39158,7 +39165,7 @@
       <c r="N427" s="21"/>
       <c r="O427" s="21"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="20"/>
       <c r="B428" s="21"/>
       <c r="C428" s="22"/>
@@ -39175,7 +39182,7 @@
       <c r="N428" s="21"/>
       <c r="O428" s="21"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="20"/>
       <c r="B429" s="21"/>
       <c r="C429" s="22"/>
@@ -39192,7 +39199,7 @@
       <c r="N429" s="21"/>
       <c r="O429" s="21"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="20"/>
       <c r="B430" s="21"/>
       <c r="C430" s="22"/>
@@ -39209,7 +39216,7 @@
       <c r="N430" s="21"/>
       <c r="O430" s="21"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="20"/>
       <c r="B431" s="21"/>
       <c r="C431" s="22"/>
@@ -39226,7 +39233,7 @@
       <c r="N431" s="21"/>
       <c r="O431" s="21"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
       <c r="B432" s="21"/>
       <c r="C432" s="22"/>
@@ -39243,7 +39250,7 @@
       <c r="N432" s="21"/>
       <c r="O432" s="21"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="20"/>
       <c r="B433" s="21"/>
       <c r="C433" s="22"/>
@@ -39260,7 +39267,7 @@
       <c r="N433" s="21"/>
       <c r="O433" s="21"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="20"/>
       <c r="B434" s="21"/>
       <c r="C434" s="22"/>
@@ -39277,7 +39284,7 @@
       <c r="N434" s="21"/>
       <c r="O434" s="21"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="20"/>
       <c r="B435" s="21"/>
       <c r="C435" s="22"/>
@@ -39294,7 +39301,7 @@
       <c r="N435" s="21"/>
       <c r="O435" s="21"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="20"/>
       <c r="B436" s="21"/>
       <c r="C436" s="22"/>
@@ -39311,7 +39318,7 @@
       <c r="N436" s="21"/>
       <c r="O436" s="21"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="20"/>
       <c r="B437" s="21"/>
       <c r="C437" s="22"/>
@@ -39328,7 +39335,7 @@
       <c r="N437" s="21"/>
       <c r="O437" s="21"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="20"/>
       <c r="B438" s="21"/>
       <c r="C438" s="22"/>
@@ -39345,7 +39352,7 @@
       <c r="N438" s="21"/>
       <c r="O438" s="21"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="20"/>
       <c r="B439" s="21"/>
       <c r="C439" s="22"/>
@@ -39362,7 +39369,7 @@
       <c r="N439" s="21"/>
       <c r="O439" s="21"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="20"/>
       <c r="B440" s="21"/>
       <c r="C440" s="22"/>
@@ -39379,7 +39386,7 @@
       <c r="N440" s="21"/>
       <c r="O440" s="21"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="20"/>
       <c r="B441" s="21"/>
       <c r="C441" s="22"/>
@@ -39396,7 +39403,7 @@
       <c r="N441" s="21"/>
       <c r="O441" s="21"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="20"/>
       <c r="B442" s="21"/>
       <c r="C442" s="22"/>
@@ -39413,7 +39420,7 @@
       <c r="N442" s="21"/>
       <c r="O442" s="21"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="20"/>
       <c r="B443" s="21"/>
       <c r="C443" s="22"/>
@@ -39430,7 +39437,7 @@
       <c r="N443" s="21"/>
       <c r="O443" s="21"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="20"/>
       <c r="B444" s="21"/>
       <c r="C444" s="22"/>
@@ -39447,7 +39454,7 @@
       <c r="N444" s="21"/>
       <c r="O444" s="21"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="20"/>
       <c r="B445" s="21"/>
       <c r="C445" s="22"/>
@@ -39464,7 +39471,7 @@
       <c r="N445" s="21"/>
       <c r="O445" s="21"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="20"/>
       <c r="B446" s="21"/>
       <c r="C446" s="22"/>
@@ -39481,7 +39488,7 @@
       <c r="N446" s="21"/>
       <c r="O446" s="21"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="20"/>
       <c r="B447" s="21"/>
       <c r="C447" s="22"/>
@@ -39498,7 +39505,7 @@
       <c r="N447" s="21"/>
       <c r="O447" s="21"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="20"/>
       <c r="B448" s="21"/>
       <c r="C448" s="22"/>
@@ -39515,7 +39522,7 @@
       <c r="N448" s="21"/>
       <c r="O448" s="21"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="20"/>
       <c r="B449" s="21"/>
       <c r="C449" s="22"/>
@@ -39532,7 +39539,7 @@
       <c r="N449" s="21"/>
       <c r="O449" s="21"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="20"/>
       <c r="B450" s="21"/>
       <c r="C450" s="22"/>
@@ -39549,7 +39556,7 @@
       <c r="N450" s="21"/>
       <c r="O450" s="21"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="20"/>
       <c r="B451" s="21"/>
       <c r="C451" s="22"/>
@@ -39566,7 +39573,7 @@
       <c r="N451" s="21"/>
       <c r="O451" s="21"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="20"/>
       <c r="B452" s="21"/>
       <c r="C452" s="22"/>
@@ -39583,7 +39590,7 @@
       <c r="N452" s="21"/>
       <c r="O452" s="21"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="20"/>
       <c r="B453" s="21"/>
       <c r="C453" s="22"/>
@@ -39600,7 +39607,7 @@
       <c r="N453" s="21"/>
       <c r="O453" s="21"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="20"/>
       <c r="B454" s="21"/>
       <c r="C454" s="22"/>
@@ -39617,7 +39624,7 @@
       <c r="N454" s="21"/>
       <c r="O454" s="21"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="20"/>
       <c r="B455" s="21"/>
       <c r="C455" s="22"/>
@@ -39634,7 +39641,7 @@
       <c r="N455" s="21"/>
       <c r="O455" s="21"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="20"/>
       <c r="B456" s="21"/>
       <c r="C456" s="22"/>
@@ -39651,7 +39658,7 @@
       <c r="N456" s="21"/>
       <c r="O456" s="21"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="20"/>
       <c r="B457" s="21"/>
       <c r="C457" s="22"/>
@@ -39668,7 +39675,7 @@
       <c r="N457" s="21"/>
       <c r="O457" s="21"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="20"/>
       <c r="B458" s="21"/>
       <c r="C458" s="22"/>
@@ -39685,7 +39692,7 @@
       <c r="N458" s="21"/>
       <c r="O458" s="21"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="20"/>
       <c r="B459" s="21"/>
       <c r="C459" s="22"/>
@@ -39702,7 +39709,7 @@
       <c r="N459" s="21"/>
       <c r="O459" s="21"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="20"/>
       <c r="B460" s="21"/>
       <c r="C460" s="22"/>
@@ -39719,7 +39726,7 @@
       <c r="N460" s="21"/>
       <c r="O460" s="21"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="20"/>
       <c r="B461" s="21"/>
       <c r="C461" s="22"/>
@@ -39736,7 +39743,7 @@
       <c r="N461" s="21"/>
       <c r="O461" s="21"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="20"/>
       <c r="B462" s="21"/>
       <c r="C462" s="22"/>
@@ -39753,7 +39760,7 @@
       <c r="N462" s="21"/>
       <c r="O462" s="21"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="20"/>
       <c r="B463" s="21"/>
       <c r="C463" s="22"/>
@@ -39770,7 +39777,7 @@
       <c r="N463" s="21"/>
       <c r="O463" s="21"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="20"/>
       <c r="B464" s="21"/>
       <c r="C464" s="22"/>
@@ -39787,7 +39794,7 @@
       <c r="N464" s="21"/>
       <c r="O464" s="21"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="20"/>
       <c r="B465" s="21"/>
       <c r="C465" s="22"/>
@@ -39804,7 +39811,7 @@
       <c r="N465" s="21"/>
       <c r="O465" s="21"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="20"/>
       <c r="B466" s="21"/>
       <c r="C466" s="22"/>
@@ -39821,7 +39828,7 @@
       <c r="N466" s="21"/>
       <c r="O466" s="21"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="20"/>
       <c r="B467" s="21"/>
       <c r="C467" s="22"/>
@@ -39838,7 +39845,7 @@
       <c r="N467" s="21"/>
       <c r="O467" s="21"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="20"/>
       <c r="B468" s="21"/>
       <c r="C468" s="22"/>
@@ -39855,7 +39862,7 @@
       <c r="N468" s="21"/>
       <c r="O468" s="21"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="20"/>
       <c r="B469" s="21"/>
       <c r="C469" s="22"/>
@@ -39876,21 +39883,21 @@
   <autoFilter ref="G1:G469" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A82:O82"/>
+    <mergeCell ref="A97:O97"/>
+    <mergeCell ref="A96:O96"/>
+    <mergeCell ref="A121:O121"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A69:O69"/>
     <mergeCell ref="A144:O144"/>
     <mergeCell ref="A145:O145"/>
     <mergeCell ref="A137:O137"/>
     <mergeCell ref="A118:O118"/>
     <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A97:O97"/>
-    <mergeCell ref="A96:O96"/>
-    <mergeCell ref="A121:O121"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A82:O82"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77:J81 J138:J143 J91:J95 J7:J8 J74:J75 J88:J89 J101:J103 J126:J128 J149:J150 J10:J16 J152:J162 J130:J136 J119:J120 J31:J52 J28 J105:J117 J54:J67 J19:J20" xr:uid="{00000000-0002-0000-0100-000000000000}">
